--- a/app/config/tables/femaleClients/forms/screenClient/screenClient.xlsx
+++ b/app/config/tables/femaleClients/forms/screenClient/screenClient.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\femaleClients\forms\screenClient\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="236" yWindow="236" windowWidth="25357" windowHeight="15814" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="276">
   <si>
     <t>type</t>
   </si>
@@ -789,12 +794,75 @@
   </si>
   <si>
     <t>infant_test</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>end if // screening</t>
+  </si>
+  <si>
+    <t>if // screening</t>
+  </si>
+  <si>
+    <t>branch_label</t>
+  </si>
+  <si>
+    <t>ineligible</t>
+  </si>
+  <si>
+    <t>refuse</t>
+  </si>
+  <si>
+    <t>goto ineligible</t>
+  </si>
+  <si>
+    <t>data('age') &lt; 14</t>
+  </si>
+  <si>
+    <t>selected(data('pregnant'),'a0')</t>
+  </si>
+  <si>
+    <t>selected(data('agree_screening'),'a0')</t>
+  </si>
+  <si>
+    <t>selected(data('curr_relationship'),'a0')</t>
+  </si>
+  <si>
+    <t>data('partner_age') &lt; 18</t>
+  </si>
+  <si>
+    <t>selected(data('clinic_proximity'),'a0')</t>
+  </si>
+  <si>
+    <t>goto refuse</t>
+  </si>
+  <si>
+    <t>selected(data('study_participation'),'a0')</t>
+  </si>
+  <si>
+    <t>goto ending</t>
+  </si>
+  <si>
+    <t>ending</t>
+  </si>
+  <si>
+    <t>if // ref_reason</t>
+  </si>
+  <si>
+    <t>selected(data('refusal_reasons','a9')</t>
+  </si>
+  <si>
+    <t>end if // ref_reason</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1428,7 +1496,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1524,6 +1592,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="537">
@@ -2071,6 +2142,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2397,793 +2471,955 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:S114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G56" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I81" sqref="I81"/>
+      <selection pane="bottomRight" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="13.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="18" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="63" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="3"/>
-    <col min="9" max="9" width="10.83203125" style="23"/>
-    <col min="10" max="10" width="10.83203125" style="3"/>
-    <col min="11" max="11" width="15" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="3"/>
-    <col min="13" max="13" width="28" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="15.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="21" customWidth="1"/>
+    <col min="7" max="7" width="63" style="3" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" style="3" customWidth="1"/>
+    <col min="9" max="10" width="10.77734375" style="3"/>
+    <col min="11" max="11" width="10.77734375" style="23"/>
+    <col min="12" max="12" width="10.77734375" style="3"/>
+    <col min="13" max="13" width="15" style="3" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" style="3"/>
+    <col min="15" max="15" width="28" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="10.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="30"/>
-    </row>
-    <row r="3" spans="1:17" s="13" customFormat="1">
-      <c r="B3" s="8" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="31"/>
-    </row>
-    <row r="4" spans="1:17" s="13" customFormat="1">
-      <c r="B4" s="8" t="s">
+      <c r="K3" s="31"/>
+    </row>
+    <row r="4" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="21" t="s">
+      <c r="E4" s="18"/>
+      <c r="F4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="31"/>
-    </row>
-    <row r="5" spans="1:17" s="13" customFormat="1" ht="120">
-      <c r="B5" s="10" t="s">
+      <c r="K4" s="31"/>
+    </row>
+    <row r="5" spans="1:19" s="13" customFormat="1" ht="125.7" x14ac:dyDescent="0.3">
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="21" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="I5" s="31"/>
-    </row>
-    <row r="6" spans="1:17" s="13" customFormat="1">
-      <c r="B6" s="8" t="s">
+      <c r="K5" s="31"/>
+    </row>
+    <row r="6" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="F6" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="31" t="b">
+      <c r="K6" s="31" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="13" customFormat="1" ht="45">
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:19" s="13" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="21"/>
+      <c r="K7" s="31"/>
+    </row>
+    <row r="8" spans="1:19" s="13" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+      <c r="D8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="21" t="s">
+      <c r="E8" s="18"/>
+      <c r="F8" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="G8" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="H8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="31"/>
-    </row>
-    <row r="8" spans="1:17" s="13" customFormat="1" ht="75">
-      <c r="B8" s="8" t="s">
+      <c r="K8" s="31"/>
+    </row>
+    <row r="9" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="21"/>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:19" s="13" customFormat="1" ht="78.55" x14ac:dyDescent="0.3">
+      <c r="D10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="21" t="s">
+      <c r="E10" s="18"/>
+      <c r="F10" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="G10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="H10" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="I8" s="31" t="b">
+      <c r="K10" s="31" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="13" customFormat="1" ht="45">
-      <c r="B9" s="8" t="s">
+    <row r="11" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="21"/>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="1:19" s="13" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+      <c r="D12" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="E12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="F12" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="G12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="H12" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="I9" s="31" t="b">
+      <c r="K12" s="31" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="13" customFormat="1" ht="30">
-      <c r="B10" s="8" t="s">
+    <row r="13" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="21"/>
+      <c r="K13" s="31"/>
+    </row>
+    <row r="14" spans="1:19" s="13" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="21" t="s">
+      <c r="E14" s="18"/>
+      <c r="F14" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="G14" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:17" s="13" customFormat="1" ht="30">
-      <c r="A11" s="13" t="s">
+      <c r="K14" s="31"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="21"/>
-      <c r="I11" s="31"/>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="1:17" s="13" customFormat="1">
-      <c r="B12" s="8" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="21"/>
+      <c r="K15" s="31"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="E16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="F16" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="G16" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="I12" s="31"/>
-    </row>
-    <row r="13" spans="1:17" s="13" customFormat="1">
-      <c r="B13" s="8" t="s">
+      <c r="K16" s="31"/>
+    </row>
+    <row r="17" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="21" t="s">
+      <c r="E17" s="18"/>
+      <c r="F17" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="G17" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="I13" s="31"/>
-    </row>
-    <row r="14" spans="1:17" s="13" customFormat="1">
-      <c r="B14" s="8" t="s">
+      <c r="K17" s="31"/>
+    </row>
+    <row r="18" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="E18" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="F18" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="G18" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="32"/>
-    </row>
-    <row r="15" spans="1:17" s="13" customFormat="1">
-      <c r="B15" s="8" t="s">
+      <c r="K18" s="32"/>
+    </row>
+    <row r="19" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="E19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="F19" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="G19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="32"/>
-    </row>
-    <row r="16" spans="1:17" s="13" customFormat="1">
-      <c r="B16" s="8" t="s">
+      <c r="K19" s="32"/>
+    </row>
+    <row r="20" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="21" t="s">
+      <c r="E20" s="18"/>
+      <c r="F20" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="G20" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="I16" s="31"/>
-    </row>
-    <row r="17" spans="1:9" s="13" customFormat="1" ht="30">
-      <c r="B17" s="8" t="s">
+      <c r="K20" s="31"/>
+    </row>
+    <row r="21" spans="2:11" s="13" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="D21" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="E21" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="F21" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="G21" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="31"/>
-    </row>
-    <row r="18" spans="1:9" s="13" customFormat="1">
-      <c r="B18" s="8" t="s">
+      <c r="K21" s="31"/>
+    </row>
+    <row r="22" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="21" t="s">
+      <c r="E22" s="18"/>
+      <c r="F22" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="G22" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="31"/>
-    </row>
-    <row r="19" spans="1:9" s="13" customFormat="1">
-      <c r="A19" s="13" t="s">
+      <c r="K22" s="31"/>
+    </row>
+    <row r="23" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="21"/>
-      <c r="I19" s="31"/>
-    </row>
-    <row r="20" spans="1:9" s="13" customFormat="1" ht="60">
-      <c r="B20" s="8" t="s">
+      <c r="D23" s="8"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="21"/>
+      <c r="K23" s="31"/>
+    </row>
+    <row r="24" spans="2:11" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+      <c r="D24" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="E24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="F24" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="G24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="H24" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I20" s="32" t="b">
+      <c r="K24" s="32" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="13" customFormat="1" ht="90">
-      <c r="B21" s="8" t="s">
+    <row r="25" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="21"/>
+      <c r="K25" s="32"/>
+    </row>
+    <row r="26" spans="2:11" s="13" customFormat="1" ht="94.25" x14ac:dyDescent="0.3">
+      <c r="D26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="21" t="s">
+      <c r="E26" s="18"/>
+      <c r="F26" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="G26" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="H26" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="31" t="b">
+      <c r="J26" s="16"/>
+      <c r="K26" s="31" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="13" customFormat="1">
-      <c r="B22" s="8" t="s">
+    <row r="27" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="21"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="31"/>
+    </row>
+    <row r="28" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="21" t="s">
+      <c r="E28" s="18"/>
+      <c r="F28" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="G28" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="I22" s="32"/>
-    </row>
-    <row r="23" spans="1:9" s="13" customFormat="1">
-      <c r="B23" s="8" t="s">
+      <c r="K28" s="32"/>
+    </row>
+    <row r="29" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="21" t="s">
+      <c r="E29" s="18"/>
+      <c r="F29" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="G29" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I23" s="32"/>
-    </row>
-    <row r="24" spans="1:9" s="13" customFormat="1" ht="60">
-      <c r="B24" s="8" t="s">
+      <c r="K29" s="32"/>
+    </row>
+    <row r="30" spans="2:11" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+      <c r="D30" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="E30" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="F30" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="G30" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="H30" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="I24" s="32" t="b">
+      <c r="K30" s="32" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="13" customFormat="1">
-      <c r="B25" s="8" t="s">
+    <row r="31" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="21"/>
+      <c r="K31" s="32"/>
+    </row>
+    <row r="32" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="E32" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="F32" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="G32" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="32"/>
-    </row>
-    <row r="26" spans="1:9" s="13" customFormat="1">
-      <c r="B26" s="8" t="s">
+      <c r="K32" s="32"/>
+    </row>
+    <row r="33" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="E33" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="F33" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="G33" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="I26" s="32"/>
-    </row>
-    <row r="27" spans="1:9" s="13" customFormat="1" ht="60">
-      <c r="B27" s="9" t="s">
+      <c r="K33" s="32"/>
+    </row>
+    <row r="34" spans="1:11" s="13" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+      <c r="D34" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="21" t="s">
+      <c r="E34" s="19"/>
+      <c r="F34" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="K34" s="31"/>
+    </row>
+    <row r="35" spans="1:11" s="13" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+      <c r="D35" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K35" s="31"/>
+    </row>
+    <row r="36" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="21"/>
+      <c r="K36" s="31"/>
+    </row>
+    <row r="37" spans="1:11" s="13" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+      <c r="D37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K37" s="32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K38" s="31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="21"/>
+      <c r="K39" s="31"/>
+    </row>
+    <row r="40" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="21"/>
+      <c r="K40" s="32"/>
+    </row>
+    <row r="41" spans="1:11" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="G41" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="I27" s="31"/>
-    </row>
-    <row r="28" spans="1:9" s="13" customFormat="1" ht="45">
-      <c r="B28" s="9" t="s">
+      <c r="K41" s="31"/>
+    </row>
+    <row r="42" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="21"/>
+      <c r="K42" s="31"/>
+    </row>
+    <row r="43" spans="1:11" s="13" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="K43" s="32"/>
+    </row>
+    <row r="44" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="21"/>
+      <c r="K44" s="32"/>
+    </row>
+    <row r="45" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K45" s="32"/>
+    </row>
+    <row r="46" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="21"/>
+      <c r="K46" s="32"/>
+    </row>
+    <row r="47" spans="1:11" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+      <c r="D47" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="1:9" s="13" customFormat="1" ht="60">
-      <c r="B29" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29" s="31"/>
-    </row>
-    <row r="30" spans="1:9" s="13" customFormat="1" ht="45">
-      <c r="B30" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="I30" s="32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="13" customFormat="1">
-      <c r="B31" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="I31" s="31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="13" customFormat="1" ht="30">
-      <c r="B32" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="I32" s="32"/>
-    </row>
-    <row r="33" spans="2:9" s="13" customFormat="1">
-      <c r="B33" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I33" s="32"/>
-    </row>
-    <row r="34" spans="2:9" s="13" customFormat="1" ht="60">
-      <c r="B34" s="9" t="s">
+      <c r="E47" s="19"/>
+      <c r="F47" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="K47" s="31"/>
+    </row>
+    <row r="48" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="21"/>
+      <c r="K48" s="31"/>
+    </row>
+    <row r="49" spans="1:11" s="13" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="I34" s="31"/>
-    </row>
-    <row r="35" spans="2:9" s="13" customFormat="1">
-      <c r="B35" s="8"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="21"/>
-      <c r="I35" s="31"/>
-    </row>
-    <row r="36" spans="2:9" s="13" customFormat="1" ht="30">
-      <c r="B36" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="21" t="s">
+      <c r="E49" s="18"/>
+      <c r="F49" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="G49" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="I36" s="31"/>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="I37" s="33"/>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="I38" s="33"/>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="I39" s="33"/>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="I40" s="33"/>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="I41" s="33"/>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="I42" s="33"/>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="I43" s="33"/>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="I44" s="33"/>
-    </row>
-    <row r="45" spans="2:9">
-      <c r="I45" s="33"/>
-    </row>
-    <row r="46" spans="2:9">
-      <c r="I46" s="33"/>
-    </row>
-    <row r="47" spans="2:9">
-      <c r="I47" s="33"/>
-    </row>
-    <row r="48" spans="2:9">
-      <c r="I48" s="33"/>
-    </row>
-    <row r="49" spans="9:9">
-      <c r="I49" s="33"/>
-    </row>
-    <row r="50" spans="9:9">
-      <c r="I50" s="33"/>
-    </row>
-    <row r="51" spans="9:9">
-      <c r="I51" s="33"/>
-    </row>
-    <row r="52" spans="9:9">
-      <c r="I52" s="33"/>
-    </row>
-    <row r="53" spans="9:9">
-      <c r="I53" s="33"/>
-    </row>
-    <row r="54" spans="9:9">
-      <c r="I54" s="33"/>
-    </row>
-    <row r="55" spans="9:9">
-      <c r="I55" s="33"/>
-    </row>
-    <row r="56" spans="9:9">
-      <c r="I56" s="33"/>
-    </row>
-    <row r="57" spans="9:9">
-      <c r="I57" s="33"/>
-    </row>
-    <row r="58" spans="9:9">
-      <c r="I58" s="33"/>
-    </row>
-    <row r="59" spans="9:9">
-      <c r="I59" s="33"/>
-    </row>
-    <row r="60" spans="9:9">
-      <c r="I60" s="33"/>
-    </row>
-    <row r="61" spans="9:9">
-      <c r="I61" s="33"/>
-    </row>
-    <row r="62" spans="9:9">
-      <c r="I62" s="33"/>
-    </row>
-    <row r="63" spans="9:9">
-      <c r="I63" s="33"/>
-    </row>
-    <row r="64" spans="9:9">
-      <c r="I64" s="33"/>
-    </row>
-    <row r="65" spans="9:9">
-      <c r="I65" s="33"/>
-    </row>
-    <row r="66" spans="9:9">
-      <c r="I66" s="33"/>
-    </row>
-    <row r="67" spans="9:9">
-      <c r="I67" s="33"/>
-    </row>
-    <row r="68" spans="9:9">
-      <c r="I68" s="33"/>
-    </row>
-    <row r="69" spans="9:9">
-      <c r="I69" s="33"/>
-    </row>
-    <row r="70" spans="9:9">
-      <c r="I70" s="33"/>
-    </row>
-    <row r="71" spans="9:9">
-      <c r="I71" s="33"/>
-    </row>
-    <row r="72" spans="9:9">
-      <c r="I72" s="33"/>
-    </row>
-    <row r="73" spans="9:9">
-      <c r="I73" s="33"/>
-    </row>
-    <row r="74" spans="9:9">
-      <c r="I74" s="33"/>
-    </row>
-    <row r="75" spans="9:9">
-      <c r="I75" s="33"/>
-    </row>
-    <row r="76" spans="9:9">
-      <c r="I76" s="33"/>
-    </row>
-    <row r="77" spans="9:9">
-      <c r="I77" s="33"/>
-    </row>
-    <row r="78" spans="9:9">
-      <c r="I78" s="33"/>
-    </row>
-    <row r="79" spans="9:9">
-      <c r="I79" s="33"/>
-    </row>
-    <row r="80" spans="9:9">
-      <c r="I80" s="33"/>
-    </row>
-    <row r="81" spans="9:9">
-      <c r="I81" s="33"/>
-    </row>
-    <row r="82" spans="9:9">
-      <c r="I82" s="33"/>
-    </row>
-    <row r="83" spans="9:9">
-      <c r="I83" s="33"/>
-    </row>
-    <row r="84" spans="9:9">
-      <c r="I84" s="33"/>
-    </row>
-    <row r="85" spans="9:9">
-      <c r="I85" s="33"/>
-    </row>
-    <row r="86" spans="9:9">
-      <c r="I86" s="33"/>
-    </row>
-    <row r="87" spans="9:9">
-      <c r="I87" s="33"/>
-    </row>
-    <row r="88" spans="9:9">
-      <c r="I88" s="33"/>
-    </row>
-    <row r="89" spans="9:9">
-      <c r="I89" s="33"/>
-    </row>
-    <row r="90" spans="9:9">
-      <c r="I90" s="33"/>
-    </row>
-    <row r="91" spans="9:9">
-      <c r="I91" s="33"/>
-    </row>
-    <row r="92" spans="9:9">
-      <c r="I92" s="33"/>
-    </row>
-    <row r="93" spans="9:9">
-      <c r="I93" s="33"/>
-    </row>
-    <row r="94" spans="9:9">
-      <c r="I94" s="33"/>
-    </row>
-    <row r="95" spans="9:9">
-      <c r="I95" s="33"/>
-    </row>
-    <row r="96" spans="9:9">
-      <c r="I96" s="33"/>
-    </row>
-    <row r="97" spans="9:9">
-      <c r="I97" s="33"/>
-    </row>
-    <row r="98" spans="9:9">
-      <c r="I98" s="33"/>
-    </row>
-    <row r="99" spans="9:9">
-      <c r="I99" s="33"/>
-    </row>
-    <row r="100" spans="9:9">
-      <c r="I100" s="33"/>
-    </row>
-    <row r="101" spans="9:9">
-      <c r="I101" s="33"/>
+      <c r="K49" s="31"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="33"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="33"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K52" s="33"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="33"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K54" s="33"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K55" s="33"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K56" s="33"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K57" s="33"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K58" s="33"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K59" s="33"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K60" s="33"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K61" s="33"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K62" s="33"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="33"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="33"/>
+    </row>
+    <row r="65" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="33"/>
+    </row>
+    <row r="66" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K66" s="33"/>
+    </row>
+    <row r="67" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K67" s="33"/>
+    </row>
+    <row r="68" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="33"/>
+    </row>
+    <row r="69" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="33"/>
+    </row>
+    <row r="70" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="33"/>
+    </row>
+    <row r="71" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="33"/>
+    </row>
+    <row r="72" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K72" s="33"/>
+    </row>
+    <row r="73" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="33"/>
+    </row>
+    <row r="74" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="33"/>
+    </row>
+    <row r="75" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="33"/>
+    </row>
+    <row r="76" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K76" s="33"/>
+    </row>
+    <row r="77" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="33"/>
+    </row>
+    <row r="78" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K78" s="33"/>
+    </row>
+    <row r="79" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K79" s="33"/>
+    </row>
+    <row r="80" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K80" s="33"/>
+    </row>
+    <row r="81" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K81" s="33"/>
+    </row>
+    <row r="82" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K82" s="33"/>
+    </row>
+    <row r="83" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K83" s="33"/>
+    </row>
+    <row r="84" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="33"/>
+    </row>
+    <row r="85" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="33"/>
+    </row>
+    <row r="86" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="33"/>
+    </row>
+    <row r="87" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="33"/>
+    </row>
+    <row r="88" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="33"/>
+    </row>
+    <row r="89" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K89" s="33"/>
+    </row>
+    <row r="90" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K90" s="33"/>
+    </row>
+    <row r="91" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K91" s="33"/>
+    </row>
+    <row r="92" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="33"/>
+    </row>
+    <row r="93" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="33"/>
+    </row>
+    <row r="94" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K94" s="33"/>
+    </row>
+    <row r="95" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K95" s="33"/>
+    </row>
+    <row r="96" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K96" s="33"/>
+    </row>
+    <row r="97" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="33"/>
+    </row>
+    <row r="98" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="33"/>
+    </row>
+    <row r="99" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="33"/>
+    </row>
+    <row r="100" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K100" s="33"/>
+    </row>
+    <row r="101" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K101" s="33"/>
+    </row>
+    <row r="102" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K102" s="33"/>
+    </row>
+    <row r="103" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K103" s="33"/>
+    </row>
+    <row r="104" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K104" s="33"/>
+    </row>
+    <row r="105" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K105" s="33"/>
+    </row>
+    <row r="106" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K106" s="33"/>
+    </row>
+    <row r="107" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K107" s="33"/>
+    </row>
+    <row r="108" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K108" s="33"/>
+    </row>
+    <row r="109" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K109" s="33"/>
+    </row>
+    <row r="110" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K110" s="33"/>
+    </row>
+    <row r="111" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K111" s="33"/>
+    </row>
+    <row r="112" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K112" s="33"/>
+    </row>
+    <row r="113" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K113" s="33"/>
+    </row>
+    <row r="114" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K114" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3200,19 +3436,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="2"/>
-    <col min="3" max="3" width="42.1640625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="21.5" style="2"/>
+    <col min="2" max="2" width="21.44140625" style="2"/>
+    <col min="3" max="3" width="42.109375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="21.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>189</v>
       </c>
@@ -3223,7 +3459,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -3234,7 +3470,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -3245,7 +3481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>121</v>
       </c>
@@ -3256,7 +3492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>121</v>
       </c>
@@ -3267,7 +3503,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>121</v>
       </c>
@@ -3278,7 +3514,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>122</v>
       </c>
@@ -3289,7 +3525,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -3300,7 +3536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -3311,7 +3547,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -3322,7 +3558,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -3333,7 +3569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -3344,7 +3580,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3355,7 +3591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -3366,7 +3602,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -3377,7 +3613,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -3388,7 +3624,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -3399,7 +3635,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -3410,7 +3646,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -3421,7 +3657,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -3432,7 +3668,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -3443,7 +3679,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -3454,7 +3690,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -3465,7 +3701,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -3476,7 +3712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -3487,7 +3723,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
@@ -3498,7 +3734,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>130</v>
       </c>
@@ -3509,7 +3745,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>130</v>
       </c>
@@ -3520,7 +3756,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>130</v>
       </c>
@@ -3531,7 +3767,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>130</v>
       </c>
@@ -3542,7 +3778,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>130</v>
       </c>
@@ -3553,7 +3789,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>130</v>
       </c>
@@ -3564,7 +3800,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>130</v>
       </c>
@@ -3575,7 +3811,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>130</v>
       </c>
@@ -3586,7 +3822,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>130</v>
       </c>
@@ -3597,7 +3833,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>130</v>
       </c>
@@ -3608,7 +3844,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>130</v>
       </c>
@@ -3619,7 +3855,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>48</v>
       </c>
@@ -3630,7 +3866,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>48</v>
       </c>
@@ -3641,7 +3877,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
@@ -3652,7 +3888,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
@@ -3663,7 +3899,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>52</v>
       </c>
@@ -3674,7 +3910,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>52</v>
       </c>
@@ -3685,7 +3921,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
@@ -3696,7 +3932,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>52</v>
       </c>
@@ -3707,7 +3943,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>97</v>
       </c>
@@ -3718,7 +3954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>97</v>
       </c>
@@ -3729,7 +3965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>97</v>
       </c>
@@ -3740,7 +3976,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>97</v>
       </c>
@@ -3751,7 +3987,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>94</v>
       </c>
@@ -3762,7 +3998,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
@@ -3773,7 +4009,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>94</v>
       </c>
@@ -3784,7 +4020,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>94</v>
       </c>
@@ -3795,7 +4031,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>56</v>
       </c>
@@ -3806,7 +4042,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
@@ -3817,7 +4053,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>70</v>
       </c>
@@ -3828,7 +4064,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>70</v>
       </c>
@@ -3839,7 +4075,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>70</v>
       </c>
@@ -3850,7 +4086,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>74</v>
       </c>
@@ -3861,7 +4097,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>74</v>
       </c>
@@ -3872,7 +4108,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>74</v>
       </c>
@@ -3883,7 +4119,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>74</v>
       </c>
@@ -3894,7 +4130,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>74</v>
       </c>
@@ -3905,7 +4141,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>74</v>
       </c>
@@ -3916,7 +4152,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>74</v>
       </c>
@@ -3927,7 +4163,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>71</v>
       </c>
@@ -3938,7 +4174,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>99</v>
       </c>
@@ -3949,7 +4185,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>104</v>
       </c>
@@ -3960,7 +4196,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>104</v>
       </c>
@@ -3971,7 +4207,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>104</v>
       </c>
@@ -3982,7 +4218,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>104</v>
       </c>
@@ -3993,7 +4229,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>104</v>
       </c>
@@ -4004,7 +4240,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>104</v>
       </c>
@@ -4015,7 +4251,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>104</v>
       </c>
@@ -4026,7 +4262,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>104</v>
       </c>
@@ -4037,7 +4273,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>104</v>
       </c>
@@ -4048,7 +4284,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>104</v>
       </c>
@@ -4059,7 +4295,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>114</v>
       </c>
@@ -4070,7 +4306,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>131</v>
       </c>
@@ -4081,7 +4317,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>131</v>
       </c>
@@ -4092,7 +4328,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>131</v>
       </c>
@@ -4103,7 +4339,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>123</v>
       </c>
@@ -4114,7 +4350,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>123</v>
       </c>
@@ -4125,7 +4361,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>144</v>
       </c>
@@ -4136,7 +4372,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>144</v>
       </c>
@@ -4166,13 +4402,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="16384" width="10.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>191</v>
       </c>
@@ -4183,7 +4419,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30">
+    <row r="2" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>136</v>
       </c>
@@ -4191,7 +4427,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>194</v>
       </c>
@@ -4199,7 +4435,7 @@
         <v>20140512</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
+    <row r="4" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>195</v>
       </c>
@@ -4207,7 +4443,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>197</v>
       </c>
@@ -4234,12 +4470,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -4247,7 +4483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>13</v>
       </c>
@@ -4255,7 +4491,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>13</v>
       </c>
@@ -4263,7 +4499,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>185</v>
       </c>
@@ -4271,7 +4507,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>12</v>
       </c>
@@ -4279,7 +4515,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>13</v>
       </c>
@@ -4287,7 +4523,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>14</v>
       </c>
@@ -4295,7 +4531,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>14</v>
       </c>
@@ -4303,7 +4539,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>185</v>
       </c>
@@ -4311,7 +4547,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>218</v>
       </c>
@@ -4319,7 +4555,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>185</v>
       </c>
@@ -4327,7 +4563,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>218</v>
       </c>
@@ -4335,7 +4571,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>12</v>
       </c>
@@ -4343,7 +4579,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>185</v>
       </c>
@@ -4351,7 +4587,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>12</v>
       </c>
@@ -4359,7 +4595,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>185</v>
       </c>
@@ -4367,7 +4603,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>185</v>
       </c>
@@ -4375,7 +4611,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30">
+    <row r="18" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>187</v>
       </c>
@@ -4383,7 +4619,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
         <v>12</v>
       </c>
@@ -4391,7 +4627,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>185</v>
       </c>
@@ -4399,7 +4635,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>185</v>
       </c>
@@ -4407,7 +4643,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
         <v>13</v>
       </c>
@@ -4415,7 +4651,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>185</v>
       </c>
@@ -4423,7 +4659,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30">
+    <row r="24" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
         <v>187</v>
       </c>
@@ -4431,7 +4667,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
         <v>12</v>
       </c>
@@ -4439,7 +4675,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
         <v>185</v>
       </c>
@@ -4447,7 +4683,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
         <v>185</v>
       </c>
@@ -4455,7 +4691,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
         <v>185</v>
       </c>
@@ -4463,7 +4699,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
         <v>13</v>
       </c>
@@ -4471,7 +4707,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
         <v>185</v>
       </c>
@@ -4479,7 +4715,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
         <v>185</v>
       </c>
@@ -4487,7 +4723,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="27" t="s">
         <v>185</v>
       </c>
@@ -4495,7 +4731,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="27" t="s">
         <v>185</v>
       </c>
@@ -4503,7 +4739,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
         <v>186</v>
       </c>
@@ -4511,7 +4747,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
         <v>186</v>
       </c>
@@ -4519,7 +4755,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
         <v>185</v>
       </c>
@@ -4527,7 +4763,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="27" t="s">
         <v>185</v>
       </c>
@@ -4535,7 +4771,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
         <v>185</v>
       </c>
@@ -4543,7 +4779,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
         <v>185</v>
       </c>
@@ -4551,7 +4787,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30">
+    <row r="40" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A40" s="27" t="s">
         <v>187</v>
       </c>
@@ -4559,7 +4795,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="27" t="s">
         <v>12</v>
       </c>
@@ -4567,7 +4803,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="27" t="s">
         <v>185</v>
       </c>
@@ -4575,7 +4811,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="30">
+    <row r="43" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
         <v>187</v>
       </c>
@@ -4583,7 +4819,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
         <v>12</v>
       </c>
@@ -4591,7 +4827,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="27" t="s">
         <v>12</v>
       </c>
@@ -4599,7 +4835,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
         <v>185</v>
       </c>
@@ -4607,7 +4843,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
         <v>185</v>
       </c>
@@ -4615,7 +4851,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
         <v>185</v>
       </c>
@@ -4623,7 +4859,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
         <v>185</v>
       </c>
@@ -4631,7 +4867,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
         <v>13</v>
       </c>
@@ -4639,7 +4875,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="29" t="s">
         <v>185</v>
       </c>
@@ -4647,7 +4883,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
         <v>12</v>
       </c>
@@ -4655,7 +4891,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="29" t="s">
         <v>186</v>
       </c>
@@ -4663,7 +4899,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="29" t="s">
         <v>185</v>
       </c>
@@ -4671,7 +4907,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
         <v>12</v>
       </c>
@@ -4679,7 +4915,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="30">
+    <row r="56" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
         <v>187</v>
       </c>
@@ -4687,7 +4923,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
         <v>12</v>
       </c>
@@ -4695,7 +4931,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="29" t="s">
         <v>185</v>
       </c>
@@ -4703,7 +4939,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="29" t="s">
         <v>13</v>
       </c>
@@ -4711,7 +4947,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="29" t="s">
         <v>13</v>
       </c>
@@ -4719,7 +4955,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="29" t="s">
         <v>13</v>
       </c>
@@ -4727,7 +4963,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="29" t="s">
         <v>185</v>
       </c>
@@ -4735,7 +4971,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="29" t="s">
         <v>185</v>
       </c>
@@ -4743,7 +4979,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="30">
+    <row r="64" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A64" s="29" t="s">
         <v>188</v>
       </c>
@@ -4751,7 +4987,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="29" t="s">
         <v>12</v>
       </c>

--- a/app/config/tables/femaleClients/forms/screenClient/screenClient.xlsx
+++ b/app/config/tables/femaleClients/forms/screenClient/screenClient.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\femaleClients\forms\screenClient\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="236" yWindow="236" windowWidth="25357" windowHeight="15814" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -799,9 +794,6 @@
     <t>condition</t>
   </si>
   <si>
-    <t>else</t>
-  </si>
-  <si>
     <t>end if // screening</t>
   </si>
   <si>
@@ -853,16 +845,19 @@
     <t>if // ref_reason</t>
   </si>
   <si>
-    <t>selected(data('refusal_reasons','a9')</t>
-  </si>
-  <si>
     <t>end if // ref_reason</t>
+  </si>
+  <si>
+    <t>selected(data('refusal_reasons','a9'))</t>
+  </si>
+  <si>
+    <t>else // screening</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2473,35 +2468,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G38" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B49" sqref="B49"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="41.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="18" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" style="21" customWidth="1"/>
     <col min="7" max="7" width="63" style="3" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" style="3" customWidth="1"/>
-    <col min="9" max="10" width="10.77734375" style="3"/>
-    <col min="11" max="11" width="10.77734375" style="23"/>
-    <col min="12" max="12" width="10.77734375" style="3"/>
+    <col min="8" max="8" width="22.83203125" style="3" customWidth="1"/>
+    <col min="9" max="10" width="10.83203125" style="3"/>
+    <col min="11" max="11" width="10.83203125" style="23"/>
+    <col min="12" max="12" width="10.83203125" style="3"/>
     <col min="13" max="13" width="15" style="3" customWidth="1"/>
-    <col min="14" max="14" width="10.77734375" style="3"/>
+    <col min="14" max="14" width="10.83203125" style="3"/>
     <col min="15" max="15" width="28" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="10.77734375" style="3"/>
+    <col min="16" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="30">
       <c r="A1" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>199</v>
@@ -2558,7 +2553,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="11" customFormat="1">
       <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2573,7 +2568,7 @@
       <c r="J2" s="12"/>
       <c r="K2" s="30"/>
     </row>
-    <row r="3" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="13" customFormat="1">
       <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
@@ -2586,7 +2581,7 @@
       </c>
       <c r="K3" s="31"/>
     </row>
-    <row r="4" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" s="13" customFormat="1">
       <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
@@ -2599,7 +2594,7 @@
       </c>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:19" s="13" customFormat="1" ht="125.7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" s="13" customFormat="1" ht="120">
       <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
@@ -2612,7 +2607,7 @@
       </c>
       <c r="K5" s="31"/>
     </row>
-    <row r="6" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" s="13" customFormat="1">
       <c r="D6" s="8" t="s">
         <v>185</v>
       </c>
@@ -2629,19 +2624,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="13" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="13" customFormat="1">
       <c r="B7" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="18"/>
       <c r="F7" s="21"/>
       <c r="K7" s="31"/>
     </row>
-    <row r="8" spans="1:19" s="13" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="13" customFormat="1" ht="45">
       <c r="D8" s="8" t="s">
         <v>16</v>
       </c>
@@ -2657,16 +2652,16 @@
       </c>
       <c r="K8" s="31"/>
     </row>
-    <row r="9" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="13" customFormat="1">
       <c r="B9" s="13" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="18"/>
       <c r="F9" s="21"/>
       <c r="K9" s="31"/>
     </row>
-    <row r="10" spans="1:19" s="13" customFormat="1" ht="78.55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="13" customFormat="1" ht="75">
       <c r="D10" s="8" t="s">
         <v>13</v>
       </c>
@@ -2684,19 +2679,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="13" customFormat="1">
       <c r="B11" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="18"/>
       <c r="F11" s="21"/>
       <c r="K11" s="31"/>
     </row>
-    <row r="12" spans="1:19" s="13" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="13" customFormat="1" ht="45">
       <c r="D12" s="8" t="s">
         <v>185</v>
       </c>
@@ -2716,19 +2711,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="13" customFormat="1">
       <c r="B13" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="18"/>
       <c r="F13" s="21"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="1:19" s="13" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="13" customFormat="1" ht="30">
       <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
@@ -2742,7 +2737,7 @@
       <c r="K14" s="31"/>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="13" customFormat="1">
       <c r="B15" s="13" t="s">
         <v>200</v>
       </c>
@@ -2752,7 +2747,7 @@
       <c r="K15" s="31"/>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="13" customFormat="1">
       <c r="D16" s="8" t="s">
         <v>185</v>
       </c>
@@ -2767,7 +2762,7 @@
       </c>
       <c r="K16" s="31"/>
     </row>
-    <row r="17" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" s="13" customFormat="1">
       <c r="D17" s="8" t="s">
         <v>12</v>
       </c>
@@ -2780,7 +2775,7 @@
       </c>
       <c r="K17" s="31"/>
     </row>
-    <row r="18" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" s="13" customFormat="1">
       <c r="D18" s="8" t="s">
         <v>186</v>
       </c>
@@ -2795,7 +2790,7 @@
       </c>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" s="13" customFormat="1">
       <c r="D19" s="8" t="s">
         <v>185</v>
       </c>
@@ -2810,7 +2805,7 @@
       </c>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" s="13" customFormat="1">
       <c r="D20" s="8" t="s">
         <v>12</v>
       </c>
@@ -2823,7 +2818,7 @@
       </c>
       <c r="K20" s="31"/>
     </row>
-    <row r="21" spans="2:11" s="13" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" s="13" customFormat="1" ht="30">
       <c r="D21" s="8" t="s">
         <v>187</v>
       </c>
@@ -2838,7 +2833,7 @@
       </c>
       <c r="K21" s="31"/>
     </row>
-    <row r="22" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" s="13" customFormat="1">
       <c r="D22" s="8" t="s">
         <v>12</v>
       </c>
@@ -2851,7 +2846,7 @@
       </c>
       <c r="K22" s="31"/>
     </row>
-    <row r="23" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" s="13" customFormat="1">
       <c r="B23" s="13" t="s">
         <v>201</v>
       </c>
@@ -2860,7 +2855,7 @@
       <c r="F23" s="21"/>
       <c r="K23" s="31"/>
     </row>
-    <row r="24" spans="2:11" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" s="13" customFormat="1" ht="60">
       <c r="D24" s="8" t="s">
         <v>185</v>
       </c>
@@ -2880,19 +2875,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" s="13" customFormat="1">
       <c r="B25" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="18"/>
       <c r="F25" s="21"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="2:11" s="13" customFormat="1" ht="94.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" s="13" customFormat="1" ht="90">
       <c r="D26" s="8" t="s">
         <v>13</v>
       </c>
@@ -2911,12 +2906,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" s="13" customFormat="1">
       <c r="B27" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="18"/>
@@ -2924,7 +2919,7 @@
       <c r="J27" s="16"/>
       <c r="K27" s="31"/>
     </row>
-    <row r="28" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" s="13" customFormat="1">
       <c r="D28" s="8" t="s">
         <v>13</v>
       </c>
@@ -2937,7 +2932,7 @@
       </c>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" s="13" customFormat="1">
       <c r="D29" s="8" t="s">
         <v>13</v>
       </c>
@@ -2950,7 +2945,7 @@
       </c>
       <c r="K29" s="32"/>
     </row>
-    <row r="30" spans="2:11" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" s="13" customFormat="1" ht="60">
       <c r="D30" s="8" t="s">
         <v>185</v>
       </c>
@@ -2970,19 +2965,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" s="13" customFormat="1">
       <c r="B31" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="18"/>
       <c r="F31" s="21"/>
       <c r="K31" s="32"/>
     </row>
-    <row r="32" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" s="13" customFormat="1">
       <c r="D32" s="8" t="s">
         <v>185</v>
       </c>
@@ -2997,7 +2992,7 @@
       </c>
       <c r="K32" s="32"/>
     </row>
-    <row r="33" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="13" customFormat="1">
       <c r="D33" s="8" t="s">
         <v>185</v>
       </c>
@@ -3012,7 +3007,7 @@
       </c>
       <c r="K33" s="32"/>
     </row>
-    <row r="34" spans="1:11" s="13" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="13" customFormat="1" ht="45">
       <c r="D34" s="9" t="s">
         <v>16</v>
       </c>
@@ -3028,7 +3023,7 @@
       </c>
       <c r="K34" s="31"/>
     </row>
-    <row r="35" spans="1:11" s="13" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="13" customFormat="1" ht="60">
       <c r="D35" s="9" t="s">
         <v>185</v>
       </c>
@@ -3046,19 +3041,19 @@
       </c>
       <c r="K35" s="31"/>
     </row>
-    <row r="36" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="13" customFormat="1">
       <c r="B36" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>269</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>270</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="19"/>
       <c r="F36" s="21"/>
       <c r="K36" s="31"/>
     </row>
-    <row r="37" spans="1:11" s="13" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="13" customFormat="1" ht="45">
       <c r="D37" s="8" t="s">
         <v>13</v>
       </c>
@@ -3076,7 +3071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="13" customFormat="1">
       <c r="D38" s="8" t="s">
         <v>185</v>
       </c>
@@ -3093,27 +3088,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="13" customFormat="1">
       <c r="B39" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="18"/>
       <c r="F39" s="21"/>
       <c r="K39" s="31"/>
     </row>
-    <row r="40" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="13" customFormat="1">
       <c r="B40" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="18"/>
       <c r="F40" s="21"/>
       <c r="K40" s="32"/>
     </row>
-    <row r="41" spans="1:11" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="13" customFormat="1" ht="60">
       <c r="A41" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>16</v>
@@ -3127,18 +3122,18 @@
       </c>
       <c r="K41" s="31"/>
     </row>
-    <row r="42" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="13" customFormat="1">
       <c r="B42" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="19"/>
       <c r="F42" s="21"/>
       <c r="K42" s="31"/>
     </row>
-    <row r="43" spans="1:11" s="13" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="13" customFormat="1" ht="30">
       <c r="A43" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>188</v>
@@ -3154,9 +3149,9 @@
       </c>
       <c r="K43" s="32"/>
     </row>
-    <row r="44" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="13" customFormat="1">
       <c r="B44" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>274</v>
@@ -3166,7 +3161,7 @@
       <c r="F44" s="21"/>
       <c r="K44" s="32"/>
     </row>
-    <row r="45" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="13" customFormat="1">
       <c r="D45" s="8" t="s">
         <v>12</v>
       </c>
@@ -3179,16 +3174,16 @@
       </c>
       <c r="K45" s="32"/>
     </row>
-    <row r="46" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="13" customFormat="1">
       <c r="B46" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="18"/>
       <c r="F46" s="21"/>
       <c r="K46" s="32"/>
     </row>
-    <row r="47" spans="1:11" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="13" customFormat="1" ht="60">
       <c r="D47" s="9" t="s">
         <v>16</v>
       </c>
@@ -3201,18 +3196,18 @@
       </c>
       <c r="K47" s="31"/>
     </row>
-    <row r="48" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="13" customFormat="1">
       <c r="B48" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="18"/>
       <c r="F48" s="21"/>
       <c r="K48" s="31"/>
     </row>
-    <row r="49" spans="1:11" s="13" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="13" customFormat="1" ht="30">
       <c r="A49" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>16</v>
@@ -3226,199 +3221,199 @@
       </c>
       <c r="K49" s="31"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11">
       <c r="K50" s="33"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11">
       <c r="K51" s="33"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11">
       <c r="K52" s="33"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11">
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11">
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11">
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11">
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11">
       <c r="K57" s="33"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11">
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11">
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11">
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11">
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11">
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11">
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11">
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="11:11">
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="11:11">
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="11:11">
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="11:11">
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="11:11">
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="11:11">
       <c r="K70" s="33"/>
     </row>
-    <row r="71" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="11:11">
       <c r="K71" s="33"/>
     </row>
-    <row r="72" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="11:11">
       <c r="K72" s="33"/>
     </row>
-    <row r="73" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="11:11">
       <c r="K73" s="33"/>
     </row>
-    <row r="74" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="11:11">
       <c r="K74" s="33"/>
     </row>
-    <row r="75" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="11:11">
       <c r="K75" s="33"/>
     </row>
-    <row r="76" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="11:11">
       <c r="K76" s="33"/>
     </row>
-    <row r="77" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="11:11">
       <c r="K77" s="33"/>
     </row>
-    <row r="78" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="11:11">
       <c r="K78" s="33"/>
     </row>
-    <row r="79" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="11:11">
       <c r="K79" s="33"/>
     </row>
-    <row r="80" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="11:11">
       <c r="K80" s="33"/>
     </row>
-    <row r="81" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="11:11">
       <c r="K81" s="33"/>
     </row>
-    <row r="82" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="11:11">
       <c r="K82" s="33"/>
     </row>
-    <row r="83" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="11:11">
       <c r="K83" s="33"/>
     </row>
-    <row r="84" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="11:11">
       <c r="K84" s="33"/>
     </row>
-    <row r="85" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="11:11">
       <c r="K85" s="33"/>
     </row>
-    <row r="86" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="11:11">
       <c r="K86" s="33"/>
     </row>
-    <row r="87" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="11:11">
       <c r="K87" s="33"/>
     </row>
-    <row r="88" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="11:11">
       <c r="K88" s="33"/>
     </row>
-    <row r="89" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="11:11">
       <c r="K89" s="33"/>
     </row>
-    <row r="90" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="11:11">
       <c r="K90" s="33"/>
     </row>
-    <row r="91" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="11:11">
       <c r="K91" s="33"/>
     </row>
-    <row r="92" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="11:11">
       <c r="K92" s="33"/>
     </row>
-    <row r="93" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="11:11">
       <c r="K93" s="33"/>
     </row>
-    <row r="94" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="11:11">
       <c r="K94" s="33"/>
     </row>
-    <row r="95" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="11:11">
       <c r="K95" s="33"/>
     </row>
-    <row r="96" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="11:11">
       <c r="K96" s="33"/>
     </row>
-    <row r="97" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="11:11">
       <c r="K97" s="33"/>
     </row>
-    <row r="98" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="11:11">
       <c r="K98" s="33"/>
     </row>
-    <row r="99" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="11:11">
       <c r="K99" s="33"/>
     </row>
-    <row r="100" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="11:11">
       <c r="K100" s="33"/>
     </row>
-    <row r="101" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="11:11">
       <c r="K101" s="33"/>
     </row>
-    <row r="102" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="11:11">
       <c r="K102" s="33"/>
     </row>
-    <row r="103" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="11:11">
       <c r="K103" s="33"/>
     </row>
-    <row r="104" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="11:11">
       <c r="K104" s="33"/>
     </row>
-    <row r="105" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="11:11">
       <c r="K105" s="33"/>
     </row>
-    <row r="106" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="11:11">
       <c r="K106" s="33"/>
     </row>
-    <row r="107" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="11:11">
       <c r="K107" s="33"/>
     </row>
-    <row r="108" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="11:11">
       <c r="K108" s="33"/>
     </row>
-    <row r="109" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="11:11">
       <c r="K109" s="33"/>
     </row>
-    <row r="110" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="11:11">
       <c r="K110" s="33"/>
     </row>
-    <row r="111" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="11:11">
       <c r="K111" s="33"/>
     </row>
-    <row r="112" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="11:11">
       <c r="K112" s="33"/>
     </row>
-    <row r="113" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="11:11">
       <c r="K113" s="33"/>
     </row>
-    <row r="114" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="11:11">
       <c r="K114" s="33"/>
     </row>
   </sheetData>
@@ -3440,15 +3435,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="21.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="2"/>
-    <col min="3" max="3" width="42.109375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="21.44140625" style="2"/>
+    <col min="2" max="2" width="21.5" style="2"/>
+    <col min="3" max="3" width="42.1640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>189</v>
       </c>
@@ -3459,7 +3454,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -3470,7 +3465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -3481,7 +3476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>121</v>
       </c>
@@ -3492,7 +3487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>121</v>
       </c>
@@ -3503,7 +3498,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>121</v>
       </c>
@@ -3514,7 +3509,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>122</v>
       </c>
@@ -3525,7 +3520,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -3536,7 +3531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -3547,7 +3542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -3558,7 +3553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -3569,7 +3564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -3580,7 +3575,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3591,7 +3586,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -3602,7 +3597,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -3613,7 +3608,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -3624,7 +3619,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -3635,7 +3630,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -3646,7 +3641,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -3657,7 +3652,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -3668,7 +3663,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -3679,7 +3674,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -3690,7 +3685,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -3701,7 +3696,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -3712,7 +3707,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -3723,7 +3718,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
@@ -3734,7 +3729,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>130</v>
       </c>
@@ -3745,7 +3740,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>130</v>
       </c>
@@ -3756,7 +3751,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>130</v>
       </c>
@@ -3767,7 +3762,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>130</v>
       </c>
@@ -3778,7 +3773,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>130</v>
       </c>
@@ -3789,7 +3784,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>130</v>
       </c>
@@ -3800,7 +3795,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>130</v>
       </c>
@@ -3811,7 +3806,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>130</v>
       </c>
@@ -3822,7 +3817,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>130</v>
       </c>
@@ -3833,7 +3828,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
         <v>130</v>
       </c>
@@ -3844,7 +3839,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
         <v>130</v>
       </c>
@@ -3855,7 +3850,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
         <v>48</v>
       </c>
@@ -3866,7 +3861,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
         <v>48</v>
       </c>
@@ -3877,7 +3872,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
@@ -3888,7 +3883,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
@@ -3899,7 +3894,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
         <v>52</v>
       </c>
@@ -3910,7 +3905,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
         <v>52</v>
       </c>
@@ -3921,7 +3916,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
@@ -3932,7 +3927,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
         <v>52</v>
       </c>
@@ -3943,7 +3938,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
         <v>97</v>
       </c>
@@ -3954,7 +3949,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
         <v>97</v>
       </c>
@@ -3965,7 +3960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
         <v>97</v>
       </c>
@@ -3976,7 +3971,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
         <v>97</v>
       </c>
@@ -3987,7 +3982,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
         <v>94</v>
       </c>
@@ -3998,7 +3993,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
@@ -4009,7 +4004,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
         <v>94</v>
       </c>
@@ -4020,7 +4015,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
         <v>94</v>
       </c>
@@ -4031,7 +4026,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
         <v>56</v>
       </c>
@@ -4042,7 +4037,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
@@ -4053,7 +4048,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
         <v>70</v>
       </c>
@@ -4064,7 +4059,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
         <v>70</v>
       </c>
@@ -4075,7 +4070,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
         <v>70</v>
       </c>
@@ -4086,7 +4081,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
         <v>74</v>
       </c>
@@ -4097,7 +4092,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
         <v>74</v>
       </c>
@@ -4108,7 +4103,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
         <v>74</v>
       </c>
@@ -4119,7 +4114,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
         <v>74</v>
       </c>
@@ -4130,7 +4125,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
         <v>74</v>
       </c>
@@ -4141,7 +4136,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
         <v>74</v>
       </c>
@@ -4152,7 +4147,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
         <v>74</v>
       </c>
@@ -4163,7 +4158,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
         <v>71</v>
       </c>
@@ -4174,7 +4169,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
         <v>99</v>
       </c>
@@ -4185,7 +4180,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
         <v>104</v>
       </c>
@@ -4196,7 +4191,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
         <v>104</v>
       </c>
@@ -4207,7 +4202,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
         <v>104</v>
       </c>
@@ -4218,7 +4213,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
         <v>104</v>
       </c>
@@ -4229,7 +4224,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
         <v>104</v>
       </c>
@@ -4240,7 +4235,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
         <v>104</v>
       </c>
@@ -4251,7 +4246,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
         <v>104</v>
       </c>
@@ -4262,7 +4257,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
         <v>104</v>
       </c>
@@ -4273,7 +4268,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
         <v>104</v>
       </c>
@@ -4284,7 +4279,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
         <v>104</v>
       </c>
@@ -4295,7 +4290,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
         <v>114</v>
       </c>
@@ -4306,7 +4301,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
         <v>131</v>
       </c>
@@ -4317,7 +4312,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
         <v>131</v>
       </c>
@@ -4328,7 +4323,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
         <v>131</v>
       </c>
@@ -4339,7 +4334,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
         <v>123</v>
       </c>
@@ -4350,7 +4345,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
         <v>123</v>
       </c>
@@ -4361,7 +4356,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
         <v>144</v>
       </c>
@@ -4372,7 +4367,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
         <v>144</v>
       </c>
@@ -4402,13 +4397,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="10.77734375" style="2"/>
+    <col min="2" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>191</v>
       </c>
@@ -4419,7 +4414,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="30">
       <c r="A2" s="6" t="s">
         <v>136</v>
       </c>
@@ -4427,7 +4422,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>194</v>
       </c>
@@ -4435,7 +4430,7 @@
         <v>20140512</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="30">
       <c r="A4" s="2" t="s">
         <v>195</v>
       </c>
@@ -4443,7 +4438,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" s="2" t="s">
         <v>197</v>
       </c>
@@ -4470,12 +4465,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -4483,7 +4478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="25" t="s">
         <v>13</v>
       </c>
@@ -4491,7 +4486,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="25" t="s">
         <v>13</v>
       </c>
@@ -4499,7 +4494,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="25" t="s">
         <v>185</v>
       </c>
@@ -4507,7 +4502,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="26" t="s">
         <v>12</v>
       </c>
@@ -4515,7 +4510,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="27" t="s">
         <v>13</v>
       </c>
@@ -4523,7 +4518,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="27" t="s">
         <v>14</v>
       </c>
@@ -4531,7 +4526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="27" t="s">
         <v>14</v>
       </c>
@@ -4539,7 +4534,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="27" t="s">
         <v>185</v>
       </c>
@@ -4547,7 +4542,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="27" t="s">
         <v>218</v>
       </c>
@@ -4555,7 +4550,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="27" t="s">
         <v>185</v>
       </c>
@@ -4563,7 +4558,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="27" t="s">
         <v>218</v>
       </c>
@@ -4571,7 +4566,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="27" t="s">
         <v>12</v>
       </c>
@@ -4579,7 +4574,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="27" t="s">
         <v>185</v>
       </c>
@@ -4587,7 +4582,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="27" t="s">
         <v>12</v>
       </c>
@@ -4595,7 +4590,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="27" t="s">
         <v>185</v>
       </c>
@@ -4603,7 +4598,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="27" t="s">
         <v>185</v>
       </c>
@@ -4611,7 +4606,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="30">
       <c r="A18" s="27" t="s">
         <v>187</v>
       </c>
@@ -4619,7 +4614,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="27" t="s">
         <v>12</v>
       </c>
@@ -4627,7 +4622,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="27" t="s">
         <v>185</v>
       </c>
@@ -4635,7 +4630,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="27" t="s">
         <v>185</v>
       </c>
@@ -4643,7 +4638,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" s="27" t="s">
         <v>13</v>
       </c>
@@ -4651,7 +4646,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="27" t="s">
         <v>185</v>
       </c>
@@ -4659,7 +4654,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="30">
       <c r="A24" s="27" t="s">
         <v>187</v>
       </c>
@@ -4667,7 +4662,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" s="27" t="s">
         <v>12</v>
       </c>
@@ -4675,7 +4670,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" s="27" t="s">
         <v>185</v>
       </c>
@@ -4683,7 +4678,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" s="27" t="s">
         <v>185</v>
       </c>
@@ -4691,7 +4686,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" s="27" t="s">
         <v>185</v>
       </c>
@@ -4699,7 +4694,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" s="27" t="s">
         <v>13</v>
       </c>
@@ -4707,7 +4702,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" s="27" t="s">
         <v>185</v>
       </c>
@@ -4715,7 +4710,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" s="27" t="s">
         <v>185</v>
       </c>
@@ -4723,7 +4718,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" s="27" t="s">
         <v>185</v>
       </c>
@@ -4731,7 +4726,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" s="27" t="s">
         <v>185</v>
       </c>
@@ -4739,7 +4734,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" s="27" t="s">
         <v>186</v>
       </c>
@@ -4747,7 +4742,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="A35" s="27" t="s">
         <v>186</v>
       </c>
@@ -4755,7 +4750,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="A36" s="27" t="s">
         <v>185</v>
       </c>
@@ -4763,7 +4758,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" s="27" t="s">
         <v>185</v>
       </c>
@@ -4771,7 +4766,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38" s="27" t="s">
         <v>185</v>
       </c>
@@ -4779,7 +4774,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" s="27" t="s">
         <v>185</v>
       </c>
@@ -4787,7 +4782,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="30">
       <c r="A40" s="27" t="s">
         <v>187</v>
       </c>
@@ -4795,7 +4790,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" s="27" t="s">
         <v>12</v>
       </c>
@@ -4803,7 +4798,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" s="27" t="s">
         <v>185</v>
       </c>
@@ -4811,7 +4806,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="30">
       <c r="A43" s="27" t="s">
         <v>187</v>
       </c>
@@ -4819,7 +4814,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="A44" s="27" t="s">
         <v>12</v>
       </c>
@@ -4827,7 +4822,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45" s="27" t="s">
         <v>12</v>
       </c>
@@ -4835,7 +4830,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" s="28" t="s">
         <v>185</v>
       </c>
@@ -4843,7 +4838,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" s="28" t="s">
         <v>185</v>
       </c>
@@ -4851,7 +4846,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" s="29" t="s">
         <v>185</v>
       </c>
@@ -4859,7 +4854,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49" s="29" t="s">
         <v>185</v>
       </c>
@@ -4867,7 +4862,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="A50" s="29" t="s">
         <v>13</v>
       </c>
@@ -4875,7 +4870,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2">
       <c r="A51" s="29" t="s">
         <v>185</v>
       </c>
@@ -4883,7 +4878,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="A52" s="29" t="s">
         <v>12</v>
       </c>
@@ -4891,7 +4886,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2">
       <c r="A53" s="29" t="s">
         <v>186</v>
       </c>
@@ -4899,7 +4894,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2">
       <c r="A54" s="29" t="s">
         <v>185</v>
       </c>
@@ -4907,7 +4902,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2">
       <c r="A55" s="29" t="s">
         <v>12</v>
       </c>
@@ -4915,7 +4910,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="30">
       <c r="A56" s="29" t="s">
         <v>187</v>
       </c>
@@ -4923,7 +4918,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2">
       <c r="A57" s="29" t="s">
         <v>12</v>
       </c>
@@ -4931,7 +4926,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2">
       <c r="A58" s="29" t="s">
         <v>185</v>
       </c>
@@ -4939,7 +4934,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2">
       <c r="A59" s="29" t="s">
         <v>13</v>
       </c>
@@ -4947,7 +4942,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2">
       <c r="A60" s="29" t="s">
         <v>13</v>
       </c>
@@ -4955,7 +4950,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2">
       <c r="A61" s="29" t="s">
         <v>13</v>
       </c>
@@ -4963,7 +4958,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2">
       <c r="A62" s="29" t="s">
         <v>185</v>
       </c>
@@ -4971,7 +4966,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2">
       <c r="A63" s="29" t="s">
         <v>185</v>
       </c>
@@ -4979,7 +4974,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="30">
       <c r="A64" s="29" t="s">
         <v>188</v>
       </c>
@@ -4987,7 +4982,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2">
       <c r="A65" s="29" t="s">
         <v>12</v>
       </c>

--- a/app/config/tables/femaleClients/forms/screenClient/screenClient.xlsx
+++ b/app/config/tables/femaleClients/forms/screenClient/screenClient.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="287">
   <si>
     <t>type</t>
   </si>
@@ -312,9 +312,6 @@
   </si>
   <si>
     <t>relationship_status_options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How many times have you been pregnant? </t>
   </si>
   <si>
     <t>What was the result of your last HIV test?</t>
@@ -799,9 +796,6 @@
     <t>condition</t>
   </si>
   <si>
-    <t>else</t>
-  </si>
-  <si>
     <t>end if // screening</t>
   </si>
   <si>
@@ -829,21 +823,9 @@
     <t>selected(data('agree_screening'),'a0')</t>
   </si>
   <si>
-    <t>selected(data('curr_relationship'),'a0')</t>
-  </si>
-  <si>
-    <t>data('partner_age') &lt; 18</t>
-  </si>
-  <si>
-    <t>selected(data('clinic_proximity'),'a0')</t>
-  </si>
-  <si>
     <t>goto refuse</t>
   </si>
   <si>
-    <t>selected(data('study_participation'),'a0')</t>
-  </si>
-  <si>
     <t>goto ending</t>
   </si>
   <si>
@@ -853,10 +835,61 @@
     <t>if // ref_reason</t>
   </si>
   <si>
-    <t>selected(data('refusal_reasons','a9')</t>
-  </si>
-  <si>
     <t>end if // ref_reason</t>
+  </si>
+  <si>
+    <t>selected(data('agree_screening'),'a1')</t>
+  </si>
+  <si>
+    <t>selected(data('agree_screening'),'a1') &amp;&amp; (data('age') &gt;= 14)</t>
+  </si>
+  <si>
+    <t>selected(data('agree_screening'),'a1') &amp;&amp; (data('age') &gt;= 14) &amp;&amp; selected(data('pregnant'),'a1') &amp;&amp; selected(data('curr_relationship'),'a1')</t>
+  </si>
+  <si>
+    <t>selected(data('agree_screening'),'a1') &amp;&amp; (data('age') &gt;= 14) &amp;&amp; selected(data('pregnant'),'a1')</t>
+  </si>
+  <si>
+    <t>selected(data('refusal_reasons'),'a9')</t>
+  </si>
+  <si>
+    <t>else // screening</t>
+  </si>
+  <si>
+    <t>selected(data('client_consent'),'a0')</t>
+  </si>
+  <si>
+    <t>selected(data('agree_screening'),'a1') &amp;&amp; (data('age') &gt;= 14) &amp;&amp; selected(data('pregnant'),'a1') &amp;&amp; (data('times_pregnant') &gt; 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many times have you been pregnant before this time? </t>
+  </si>
+  <si>
+    <t>selected(data('agree_screening'),'a0') || (data('age') &lt; 14) || selected(data('pregnant'),'a0') || selected(data('curr_relationship'),'a0') || (data('partner_age') &lt; 18) || selected(data('clinic_proximity'),'a0')</t>
+  </si>
+  <si>
+    <t>selected(data('agree_screening'),'a1') &amp;&amp; (data('age') &gt;= 14) &amp;&amp; selected(data('pregnant'),'a1') &amp;&amp; selected(data('curr_relationship'),'a1') &amp;&amp; (data('partner_age') &gt;= 18) &amp;&amp; selected(data('clinic_proximity'),'a1') &amp;&amp; selected(data('client_consent'),'a1')</t>
+  </si>
+  <si>
+    <t>if // partner</t>
+  </si>
+  <si>
+    <t>end if // partner</t>
+  </si>
+  <si>
+    <t>end if // prior_preg</t>
+  </si>
+  <si>
+    <t>if // prior_preg</t>
+  </si>
+  <si>
+    <t>if // hiv_tested</t>
+  </si>
+  <si>
+    <t>end if // hiv_tested</t>
+  </si>
+  <si>
+    <t>selected(data('hiv_tested'),'a1')</t>
   </si>
 </sst>
 </file>
@@ -2471,13 +2504,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S114"/>
+  <dimension ref="A1:S118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B49" sqref="B49"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2485,13 +2518,13 @@
     <col min="1" max="1" width="15.44140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="21.44140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="41.21875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" style="18" customWidth="1"/>
     <col min="6" max="6" width="25.109375" style="21" customWidth="1"/>
     <col min="7" max="7" width="63" style="3" customWidth="1"/>
     <col min="8" max="8" width="22.77734375" style="3" customWidth="1"/>
     <col min="9" max="10" width="10.77734375" style="3"/>
-    <col min="11" max="11" width="10.77734375" style="23"/>
+    <col min="11" max="11" width="43.109375" style="23" customWidth="1"/>
     <col min="12" max="12" width="10.77734375" style="3"/>
     <col min="13" max="13" width="15" style="3" customWidth="1"/>
     <col min="14" max="14" width="10.77734375" style="3"/>
@@ -2501,28 +2534,28 @@
   <sheetData>
     <row r="1" spans="1:19" s="5" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>2</v>
@@ -2564,7 +2597,7 @@
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>85</v>
@@ -2579,7 +2612,7 @@
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>54</v>
@@ -2605,36 +2638,36 @@
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D6" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K6" s="31" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="13" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="18"/>
@@ -2647,10 +2680,10 @@
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>84</v>
@@ -2659,7 +2692,7 @@
     </row>
     <row r="9" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="18"/>
@@ -2672,24 +2705,24 @@
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="K10" s="31" t="b">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="18"/>
@@ -2698,30 +2731,30 @@
     </row>
     <row r="12" spans="1:19" s="13" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="D12" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="K12" s="31" t="b">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>264</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="18"/>
@@ -2734,17 +2767,17 @@
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K14" s="31"/>
       <c r="N14" s="14"/>
     </row>
     <row r="15" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="18"/>
@@ -2754,16 +2787,16 @@
     </row>
     <row r="16" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D16" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K16" s="31"/>
     </row>
@@ -2773,31 +2806,31 @@
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K17" s="31"/>
     </row>
     <row r="18" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D18" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>74</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K18" s="32"/>
     </row>
     <row r="19" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D19" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>29</v>
@@ -2816,22 +2849,22 @@
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K20" s="31"/>
     </row>
     <row r="21" spans="2:11" s="13" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="D21" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>40</v>
@@ -2844,16 +2877,16 @@
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K22" s="31"/>
     </row>
     <row r="23" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="18"/>
@@ -2862,35 +2895,34 @@
     </row>
     <row r="24" spans="2:11" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
       <c r="D24" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>55</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="K24" s="32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" s="13" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="18"/>
       <c r="F25" s="21"/>
-      <c r="K25" s="32"/>
     </row>
     <row r="26" spans="2:11" s="13" customFormat="1" ht="94.25" x14ac:dyDescent="0.3">
       <c r="D26" s="8" t="s">
@@ -2898,31 +2930,27 @@
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>73</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J26" s="16"/>
-      <c r="K26" s="31" t="b">
-        <v>1</v>
+      <c r="K26" s="13" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="18"/>
       <c r="F27" s="21"/>
       <c r="J27" s="16"/>
-      <c r="K27" s="31"/>
     </row>
     <row r="28" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D28" s="8" t="s">
@@ -2930,313 +2958,345 @@
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>95</v>
+        <v>277</v>
       </c>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="8" t="s">
-        <v>13</v>
-      </c>
+    <row r="29" spans="2:11" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+      <c r="B29" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="D29" s="8"/>
       <c r="E29" s="18"/>
-      <c r="F29" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>81</v>
-      </c>
+      <c r="F29" s="21"/>
       <c r="K29" s="32"/>
     </row>
     <row r="30" spans="2:11" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
       <c r="D30" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E30" s="18"/>
       <c r="F30" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="K30" s="32" t="b">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="K30" s="32" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="18"/>
       <c r="F31" s="21"/>
       <c r="K31" s="32"/>
     </row>
-    <row r="32" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
       <c r="D32" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="K32" s="32"/>
+        <v>47</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="33" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E33" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K33" s="32"/>
+    </row>
+    <row r="34" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="21"/>
+      <c r="K34" s="32"/>
+    </row>
+    <row r="35" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F33" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="K33" s="32"/>
-    </row>
-    <row r="34" spans="1:11" s="13" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
-      <c r="D34" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="K34" s="31"/>
-    </row>
-    <row r="35" spans="1:11" s="13" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
-      <c r="D35" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>123</v>
-      </c>
       <c r="F35" s="21" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K35" s="31"/>
+        <v>95</v>
+      </c>
+      <c r="K35" s="32"/>
     </row>
     <row r="36" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="19"/>
+        <v>285</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="18"/>
       <c r="F36" s="21"/>
-      <c r="K36" s="31"/>
-    </row>
-    <row r="37" spans="1:11" s="13" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
-      <c r="D37" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="K36" s="32"/>
+    </row>
+    <row r="37" spans="1:11" s="13" customFormat="1" ht="94.25" x14ac:dyDescent="0.3">
+      <c r="B37" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D37" s="8"/>
       <c r="E37" s="18"/>
-      <c r="F37" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="K37" s="32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>144</v>
-      </c>
+      <c r="F37" s="21"/>
+      <c r="K37" s="32"/>
+    </row>
+    <row r="38" spans="1:11" s="13" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+      <c r="D38" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="19"/>
       <c r="F38" s="21" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="K38" s="31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="21"/>
+        <v>133</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K38" s="31"/>
+    </row>
+    <row r="39" spans="1:11" s="13" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+      <c r="D39" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="K39" s="31"/>
     </row>
     <row r="40" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="18"/>
+        <v>264</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="19"/>
       <c r="F40" s="21"/>
-      <c r="K40" s="32"/>
-    </row>
-    <row r="41" spans="1:11" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="19"/>
+      <c r="K40" s="31"/>
+    </row>
+    <row r="41" spans="1:11" s="13" customFormat="1" ht="110" x14ac:dyDescent="0.3">
+      <c r="D41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="18"/>
       <c r="F41" s="21" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="K41" s="31"/>
-    </row>
-    <row r="42" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="21"/>
-      <c r="K42" s="31"/>
-    </row>
-    <row r="43" spans="1:11" s="13" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="K43" s="32"/>
+        <v>140</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="13" customFormat="1" ht="110" x14ac:dyDescent="0.3">
+      <c r="D42" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="21"/>
+      <c r="K43" s="31"/>
     </row>
     <row r="44" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="18"/>
       <c r="F44" s="21"/>
       <c r="K44" s="32"/>
     </row>
-    <row r="45" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="18"/>
+    <row r="45" spans="1:11" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="19"/>
       <c r="F45" s="21" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="K45" s="32"/>
+        <v>138</v>
+      </c>
+      <c r="K45" s="31"/>
     </row>
     <row r="46" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="18"/>
+        <v>265</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="19"/>
       <c r="F46" s="21"/>
-      <c r="K46" s="32"/>
-    </row>
-    <row r="47" spans="1:11" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
-      <c r="D47" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="19"/>
+      <c r="K46" s="31"/>
+    </row>
+    <row r="47" spans="1:11" s="13" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A47" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>103</v>
+      </c>
       <c r="F47" s="21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="K47" s="31"/>
+        <v>102</v>
+      </c>
+      <c r="K47" s="32"/>
     </row>
     <row r="48" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="13" t="s">
-        <v>271</v>
+        <v>267</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>273</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="18"/>
       <c r="F48" s="21"/>
-      <c r="K48" s="31"/>
-    </row>
-    <row r="49" spans="1:11" s="13" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="s">
-        <v>272</v>
-      </c>
+      <c r="K48" s="32"/>
+    </row>
+    <row r="49" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D49" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E49" s="18"/>
       <c r="F49" s="21" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="K49" s="31"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K50" s="33"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K51" s="33"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K52" s="33"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K53" s="33"/>
+        <v>124</v>
+      </c>
+      <c r="K49" s="32"/>
+    </row>
+    <row r="50" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="21"/>
+      <c r="K50" s="32"/>
+    </row>
+    <row r="51" spans="1:11" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+      <c r="D51" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="19"/>
+      <c r="F51" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K51" s="31"/>
+    </row>
+    <row r="52" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="21"/>
+      <c r="K52" s="31"/>
+    </row>
+    <row r="53" spans="1:11" s="13" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A53" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="18"/>
+      <c r="F53" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="K53" s="31"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K54" s="33"/>
@@ -3420,6 +3480,18 @@
     </row>
     <row r="114" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K114" s="33"/>
+    </row>
+    <row r="115" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K115" s="33"/>
+    </row>
+    <row r="116" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K116" s="33"/>
+    </row>
+    <row r="117" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K117" s="33"/>
+    </row>
+    <row r="118" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K118" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3436,8 +3508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3450,13 +3522,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3464,7 +3536,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -3475,7 +3547,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
@@ -3483,10 +3555,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -3494,10 +3566,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
@@ -3505,10 +3577,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>86</v>
@@ -3516,10 +3588,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>86</v>
@@ -3530,7 +3602,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
@@ -3541,7 +3613,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -3552,7 +3624,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
@@ -3563,7 +3635,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
@@ -3574,7 +3646,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>27</v>
@@ -3585,7 +3657,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>28</v>
@@ -3596,7 +3668,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>69</v>
@@ -3607,7 +3679,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>86</v>
@@ -3618,7 +3690,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>31</v>
@@ -3629,7 +3701,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
@@ -3640,7 +3712,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>33</v>
@@ -3651,7 +3723,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>34</v>
@@ -3662,7 +3734,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>35</v>
@@ -3673,7 +3745,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>36</v>
@@ -3684,7 +3756,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>37</v>
@@ -3695,7 +3767,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>38</v>
@@ -3706,7 +3778,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>30</v>
@@ -3717,7 +3789,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>69</v>
@@ -3728,7 +3800,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>86</v>
@@ -3736,10 +3808,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>87</v>
@@ -3747,10 +3819,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>88</v>
@@ -3758,10 +3830,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>45</v>
@@ -3769,10 +3841,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>42</v>
@@ -3780,10 +3852,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>43</v>
@@ -3791,10 +3863,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>89</v>
@@ -3802,10 +3874,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>44</v>
@@ -3813,10 +3885,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>46</v>
@@ -3824,10 +3896,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>41</v>
@@ -3835,10 +3907,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>69</v>
@@ -3846,10 +3918,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>86</v>
@@ -3860,7 +3932,7 @@
         <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>49</v>
@@ -3871,7 +3943,7 @@
         <v>48</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>50</v>
@@ -3882,7 +3954,7 @@
         <v>48</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>69</v>
@@ -3893,7 +3965,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>86</v>
@@ -3904,7 +3976,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>64</v>
@@ -3915,7 +3987,7 @@
         <v>52</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>65</v>
@@ -3926,7 +3998,7 @@
         <v>52</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>86</v>
@@ -3937,7 +4009,7 @@
         <v>52</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>82</v>
@@ -3945,10 +4017,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
@@ -3956,10 +4028,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>19</v>
@@ -3967,10 +4039,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>86</v>
@@ -3978,10 +4050,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>82</v>
@@ -3992,7 +4064,7 @@
         <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>90</v>
@@ -4003,7 +4075,7 @@
         <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>91</v>
@@ -4014,7 +4086,7 @@
         <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>92</v>
@@ -4025,7 +4097,7 @@
         <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>93</v>
@@ -4091,7 +4163,7 @@
         <v>74</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>75</v>
@@ -4102,7 +4174,7 @@
         <v>74</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>76</v>
@@ -4113,7 +4185,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>77</v>
@@ -4124,7 +4196,7 @@
         <v>74</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>78</v>
@@ -4135,7 +4207,7 @@
         <v>74</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>79</v>
@@ -4146,7 +4218,7 @@
         <v>74</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>80</v>
@@ -4157,7 +4229,7 @@
         <v>74</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>86</v>
@@ -4168,7 +4240,7 @@
         <v>71</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>72</v>
@@ -4176,109 +4248,109 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>69</v>
@@ -4286,10 +4358,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>86</v>
@@ -4297,43 +4369,43 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>86</v>
@@ -4341,46 +4413,46 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4410,26 +4482,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3" s="2">
         <v>20140512</v>
@@ -4437,18 +4509,18 @@
     </row>
     <row r="4" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4560,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4496,15 +4568,15 @@
         <v>13</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4512,7 +4584,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4520,7 +4592,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4536,39 +4608,39 @@
         <v>14</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>218</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -4576,15 +4648,15 @@
         <v>12</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -4592,31 +4664,31 @@
         <v>12</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -4624,23 +4696,23 @@
         <v>12</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -4648,23 +4720,23 @@
         <v>13</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -4672,31 +4744,31 @@
         <v>12</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -4704,95 +4776,95 @@
         <v>13</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A40" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -4800,23 +4872,23 @@
         <v>12</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -4824,7 +4896,7 @@
         <v>12</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -4832,39 +4904,39 @@
         <v>12</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -4872,15 +4944,15 @@
         <v>13</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -4888,20 +4960,20 @@
         <v>12</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B54" s="29" t="s">
         <v>29</v>
@@ -4912,15 +4984,15 @@
         <v>12</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -4928,15 +5000,15 @@
         <v>12</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -4944,7 +5016,7 @@
         <v>13</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -4952,7 +5024,7 @@
         <v>13</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -4960,31 +5032,31 @@
         <v>13</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A64" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -4992,7 +5064,7 @@
         <v>12</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/femaleClients/forms/screenClient/screenClient.xlsx
+++ b/app/config/tables/femaleClients/forms/screenClient/screenClient.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="30220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="281">
   <si>
     <t>type</t>
   </si>
@@ -794,64 +794,79 @@
     <t>condition</t>
   </si>
   <si>
-    <t>end if // screening</t>
-  </si>
-  <si>
-    <t>if // screening</t>
-  </si>
-  <si>
-    <t>branch_label</t>
-  </si>
-  <si>
-    <t>ineligible</t>
-  </si>
-  <si>
-    <t>refuse</t>
-  </si>
-  <si>
-    <t>goto ineligible</t>
-  </si>
-  <si>
-    <t>data('age') &lt; 14</t>
-  </si>
-  <si>
-    <t>selected(data('pregnant'),'a0')</t>
-  </si>
-  <si>
-    <t>selected(data('agree_screening'),'a0')</t>
-  </si>
-  <si>
-    <t>selected(data('curr_relationship'),'a0')</t>
-  </si>
-  <si>
-    <t>data('partner_age') &lt; 18</t>
-  </si>
-  <si>
-    <t>selected(data('clinic_proximity'),'a0')</t>
-  </si>
-  <si>
-    <t>goto refuse</t>
-  </si>
-  <si>
-    <t>selected(data('study_participation'),'a0')</t>
-  </si>
-  <si>
-    <t>goto ending</t>
-  </si>
-  <si>
-    <t>ending</t>
-  </si>
-  <si>
-    <t>if // ref_reason</t>
-  </si>
-  <si>
-    <t>end if // ref_reason</t>
-  </si>
-  <si>
-    <t>selected(data('refusal_reasons','a9'))</t>
-  </si>
-  <si>
-    <t>else // screening</t>
+    <t>if</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>is_valid</t>
+  </si>
+  <si>
+    <t>isSessionVariable</t>
+  </si>
+  <si>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>is_willing_study</t>
+  </si>
+  <si>
+    <t>is_willing_screening</t>
+  </si>
+  <si>
+    <t>data('is_valid')</t>
+  </si>
+  <si>
+    <t>data('is_willing_study')</t>
+  </si>
+  <si>
+    <t>not(data('is_willing_study'))</t>
+  </si>
+  <si>
+    <t>not(data('is_willing_screening'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('is_valid') </t>
+  </si>
+  <si>
+    <t>selected(data('agree_screening'), 'a1')</t>
+  </si>
+  <si>
+    <t>data('age') &gt;= 14</t>
+  </si>
+  <si>
+    <t>selected(data('curr_relationship'), 'a1')</t>
+  </si>
+  <si>
+    <t>data('partner_age') &gt;= 18</t>
+  </si>
+  <si>
+    <t>selected(data('client_consent'), 'a1')</t>
+  </si>
+  <si>
+    <t>selected(data('pregnant'), 'a1')</t>
+  </si>
+  <si>
+    <t>selected(data('clinic_proximity'), 'a1')</t>
+  </si>
+  <si>
+    <t>not(data('is_valid')) &amp;&amp; data('is_willing_screening')</t>
+  </si>
+  <si>
+    <t>data('is_willing_screening')</t>
+  </si>
+  <si>
+    <t>should_continue</t>
+  </si>
+  <si>
+    <t>data('should_continue')</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>selected(data('hiv_tested'),'a1')</t>
   </si>
 </sst>
 </file>
@@ -952,8 +967,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="537">
+  <cellStyleXfs count="587">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1588,11 +1653,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="537">
+  <cellStyles count="587">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1861,6 +1926,31 @@
     <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2129,6 +2219,31 @@
     <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="585" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2136,9 +2251,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2466,955 +2578,1143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S114"/>
+  <dimension ref="A1:R119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="41.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="18" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="63" style="3" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" style="3" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125" style="3"/>
-    <col min="11" max="11" width="10.83203125" style="23"/>
-    <col min="12" max="12" width="10.83203125" style="3"/>
-    <col min="13" max="13" width="15" style="3" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="3"/>
-    <col min="15" max="15" width="28" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="2" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="13.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="18" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="63" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" style="3" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="3"/>
+    <col min="10" max="10" width="10.83203125" style="23"/>
+    <col min="11" max="11" width="10.83203125" style="3"/>
+    <col min="12" max="12" width="15" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="3"/>
+    <col min="14" max="14" width="28" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" ht="30">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:18" ht="30">
+      <c r="A1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="11" customFormat="1">
+      <c r="C2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="30"/>
+    </row>
+    <row r="3" spans="1:18" s="13" customFormat="1">
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" spans="1:18" s="13" customFormat="1">
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="31"/>
+    </row>
+    <row r="5" spans="1:18" s="13" customFormat="1" ht="120">
+      <c r="C5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" s="31"/>
+    </row>
+    <row r="6" spans="1:18" s="13" customFormat="1">
+      <c r="C6" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="13" customFormat="1" ht="45">
+      <c r="C7" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="L7" s="13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="13" customFormat="1" ht="45">
+      <c r="A8" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="21"/>
+      <c r="J8" s="31"/>
+    </row>
+    <row r="9" spans="1:18" s="13" customFormat="1" ht="75">
+      <c r="C9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="13" customFormat="1">
+      <c r="C10" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="F1" s="34" t="s">
+      <c r="J10" s="31"/>
+      <c r="L10" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="13" customFormat="1">
+      <c r="A11" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="21"/>
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" spans="1:18" s="13" customFormat="1" ht="30">
+      <c r="A12" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="21"/>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="1:18" s="13" customFormat="1" ht="45">
+      <c r="C13" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="13" customFormat="1" ht="30">
+      <c r="C14" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="J14" s="31"/>
+      <c r="L14" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="13" customFormat="1">
+      <c r="A15" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="21"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="1:18" s="13" customFormat="1" ht="30">
+      <c r="A16" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="21"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="1:13" s="13" customFormat="1">
+      <c r="C17" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="J17" s="31"/>
+      <c r="L17" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="11" customFormat="1">
-      <c r="D2" s="10" t="s">
+    </row>
+    <row r="18" spans="1:13" s="13" customFormat="1" ht="30">
+      <c r="C18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="31"/>
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="1:13" s="13" customFormat="1" ht="30">
+      <c r="A19" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="21"/>
+      <c r="J19" s="31"/>
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="1:13" s="13" customFormat="1">
+      <c r="C20" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J20" s="31"/>
+    </row>
+    <row r="21" spans="1:13" s="13" customFormat="1">
+      <c r="C21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="30"/>
-    </row>
-    <row r="3" spans="1:19" s="13" customFormat="1">
-      <c r="D3" s="8" t="s">
+      <c r="D21" s="18"/>
+      <c r="E21" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J21" s="31"/>
+    </row>
+    <row r="22" spans="1:13" s="13" customFormat="1">
+      <c r="C22" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" s="32"/>
+    </row>
+    <row r="23" spans="1:13" s="13" customFormat="1">
+      <c r="C23" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="32"/>
+    </row>
+    <row r="24" spans="1:13" s="13" customFormat="1">
+      <c r="C24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J24" s="31"/>
+    </row>
+    <row r="25" spans="1:13" s="13" customFormat="1" ht="30">
+      <c r="C25" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="31"/>
+    </row>
+    <row r="26" spans="1:13" s="13" customFormat="1">
+      <c r="C26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J26" s="31"/>
+    </row>
+    <row r="27" spans="1:13" s="13" customFormat="1">
+      <c r="A27" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="21"/>
+      <c r="J27" s="31"/>
+    </row>
+    <row r="28" spans="1:13" s="13" customFormat="1" ht="60">
+      <c r="C28" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J28" s="31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="13" customFormat="1" ht="45">
+      <c r="C29" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="J29" s="32"/>
+      <c r="L29" s="13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="13" customFormat="1" ht="90">
+      <c r="C30" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" spans="1:19" s="13" customFormat="1">
-      <c r="D4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="5" spans="1:19" s="13" customFormat="1" ht="120">
-      <c r="D5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="K5" s="31"/>
-    </row>
-    <row r="6" spans="1:19" s="13" customFormat="1">
-      <c r="D6" s="8" t="s">
+      <c r="D30" s="18"/>
+      <c r="E30" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I30" s="16"/>
+      <c r="J30" s="31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="13" customFormat="1" ht="30">
+      <c r="A31" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="21"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="31"/>
+    </row>
+    <row r="32" spans="1:13" s="13" customFormat="1" ht="30">
+      <c r="C32" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="J32" s="32"/>
+      <c r="L32" s="13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="13" customFormat="1">
+      <c r="A33" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="21"/>
+      <c r="J33" s="32"/>
+    </row>
+    <row r="34" spans="1:12" s="13" customFormat="1">
+      <c r="C34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="J34" s="32"/>
+    </row>
+    <row r="35" spans="1:12" s="13" customFormat="1">
+      <c r="C35" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J35" s="32"/>
+    </row>
+    <row r="36" spans="1:12" s="13" customFormat="1" ht="60">
+      <c r="C36" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="D36" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" s="31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="13" customFormat="1">
-      <c r="B7" s="13" t="s">
+      <c r="E36" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="13" customFormat="1" ht="30">
+      <c r="A37" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="21"/>
+      <c r="J37" s="32"/>
+    </row>
+    <row r="38" spans="1:12" s="13" customFormat="1" ht="45">
+      <c r="C38" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="21"/>
-      <c r="K7" s="31"/>
-    </row>
-    <row r="8" spans="1:19" s="13" customFormat="1" ht="45">
-      <c r="D8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="31"/>
-    </row>
-    <row r="9" spans="1:19" s="13" customFormat="1">
-      <c r="B9" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="21"/>
-      <c r="K9" s="31"/>
-    </row>
-    <row r="10" spans="1:19" s="13" customFormat="1" ht="75">
-      <c r="D10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="K10" s="31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="13" customFormat="1">
-      <c r="B11" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="21"/>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="1:19" s="13" customFormat="1" ht="45">
-      <c r="D12" s="8" t="s">
+      <c r="D38" s="18"/>
+      <c r="E38" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="J38" s="32"/>
+      <c r="L38" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="13" customFormat="1">
+      <c r="A39" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="21"/>
+      <c r="J39" s="32"/>
+    </row>
+    <row r="40" spans="1:12" s="13" customFormat="1">
+      <c r="C40" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="K12" s="31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="13" customFormat="1">
-      <c r="B13" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="21"/>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="1:19" s="13" customFormat="1" ht="30">
-      <c r="D14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="K14" s="31"/>
-      <c r="N14" s="14"/>
-    </row>
-    <row r="15" spans="1:19" s="13" customFormat="1">
-      <c r="B15" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="21"/>
-      <c r="K15" s="31"/>
-      <c r="N15" s="14"/>
-    </row>
-    <row r="16" spans="1:19" s="13" customFormat="1">
-      <c r="D16" s="8" t="s">
+      <c r="D40" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J40" s="32"/>
+    </row>
+    <row r="41" spans="1:12" s="13" customFormat="1" ht="45">
+      <c r="A41" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="21"/>
+      <c r="J41" s="32"/>
+    </row>
+    <row r="42" spans="1:12" s="13" customFormat="1">
+      <c r="C42" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="K16" s="31"/>
-    </row>
-    <row r="17" spans="2:11" s="13" customFormat="1">
-      <c r="D17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="K17" s="31"/>
-    </row>
-    <row r="18" spans="2:11" s="13" customFormat="1">
-      <c r="D18" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="K18" s="32"/>
-    </row>
-    <row r="19" spans="2:11" s="13" customFormat="1">
-      <c r="D19" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="32"/>
-    </row>
-    <row r="20" spans="2:11" s="13" customFormat="1">
-      <c r="D20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K20" s="31"/>
-    </row>
-    <row r="21" spans="2:11" s="13" customFormat="1" ht="30">
-      <c r="D21" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21" s="31"/>
-    </row>
-    <row r="22" spans="2:11" s="13" customFormat="1">
-      <c r="D22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="K22" s="31"/>
-    </row>
-    <row r="23" spans="2:11" s="13" customFormat="1">
-      <c r="B23" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="21"/>
-      <c r="K23" s="31"/>
-    </row>
-    <row r="24" spans="2:11" s="13" customFormat="1" ht="60">
-      <c r="D24" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="K24" s="32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" s="13" customFormat="1">
-      <c r="B25" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="21"/>
-      <c r="K25" s="32"/>
-    </row>
-    <row r="26" spans="2:11" s="13" customFormat="1" ht="90">
-      <c r="D26" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="J26" s="16"/>
-      <c r="K26" s="31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" s="13" customFormat="1">
-      <c r="B27" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="21"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="31"/>
-    </row>
-    <row r="28" spans="2:11" s="13" customFormat="1">
-      <c r="D28" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="K28" s="32"/>
-    </row>
-    <row r="29" spans="2:11" s="13" customFormat="1">
-      <c r="D29" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="K29" s="32"/>
-    </row>
-    <row r="30" spans="2:11" s="13" customFormat="1" ht="60">
-      <c r="D30" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="K30" s="32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" s="13" customFormat="1">
-      <c r="B31" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="21"/>
-      <c r="K31" s="32"/>
-    </row>
-    <row r="32" spans="2:11" s="13" customFormat="1">
-      <c r="D32" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="K32" s="32"/>
-    </row>
-    <row r="33" spans="1:11" s="13" customFormat="1">
-      <c r="D33" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E33" s="18" t="s">
+      <c r="D42" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="E42" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="F42" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="K33" s="32"/>
-    </row>
-    <row r="34" spans="1:11" s="13" customFormat="1" ht="45">
-      <c r="D34" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="K34" s="31"/>
-    </row>
-    <row r="35" spans="1:11" s="13" customFormat="1" ht="60">
-      <c r="D35" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K35" s="31"/>
-    </row>
-    <row r="36" spans="1:11" s="13" customFormat="1">
-      <c r="B36" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="21"/>
-      <c r="K36" s="31"/>
-    </row>
-    <row r="37" spans="1:11" s="13" customFormat="1" ht="45">
-      <c r="D37" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="K37" s="32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="13" customFormat="1">
-      <c r="D38" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="K38" s="31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="13" customFormat="1">
-      <c r="B39" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="21"/>
-      <c r="K39" s="31"/>
-    </row>
-    <row r="40" spans="1:11" s="13" customFormat="1">
-      <c r="B40" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="21"/>
-      <c r="K40" s="32"/>
-    </row>
-    <row r="41" spans="1:11" s="13" customFormat="1" ht="60">
-      <c r="A41" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="K41" s="31"/>
-    </row>
-    <row r="42" spans="1:11" s="13" customFormat="1">
-      <c r="B42" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="21"/>
-      <c r="K42" s="31"/>
-    </row>
-    <row r="43" spans="1:11" s="13" customFormat="1" ht="30">
+      <c r="J42" s="32"/>
+    </row>
+    <row r="43" spans="1:12" s="13" customFormat="1">
       <c r="A43" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="C43" s="8"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="21"/>
+      <c r="J43" s="32"/>
+    </row>
+    <row r="44" spans="1:12" s="13" customFormat="1">
+      <c r="A44" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="21"/>
+      <c r="J44" s="32"/>
+    </row>
+    <row r="45" spans="1:12" s="13" customFormat="1" ht="30">
+      <c r="A45" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="21"/>
+      <c r="J45" s="32"/>
+    </row>
+    <row r="46" spans="1:12" s="13" customFormat="1" ht="45">
+      <c r="C46" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J46" s="31"/>
+    </row>
+    <row r="47" spans="1:12" s="13" customFormat="1" ht="60">
+      <c r="C47" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J47" s="31"/>
+    </row>
+    <row r="48" spans="1:12" s="13" customFormat="1" ht="45">
+      <c r="C48" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="J48" s="31"/>
+      <c r="L48" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="13" customFormat="1" ht="30">
+      <c r="A49" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="21"/>
+      <c r="J49" s="31"/>
+    </row>
+    <row r="50" spans="1:12" ht="45">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+    </row>
+    <row r="51" spans="1:12" ht="30">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+    </row>
+    <row r="53" spans="1:12" ht="45">
+      <c r="A53" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+    </row>
+    <row r="54" spans="1:12" ht="30">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="D54" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="E54" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="F54" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="K43" s="32"/>
-    </row>
-    <row r="44" spans="1:11" s="13" customFormat="1">
-      <c r="B44" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="21"/>
-      <c r="K44" s="32"/>
-    </row>
-    <row r="45" spans="1:11" s="13" customFormat="1">
-      <c r="D45" s="8" t="s">
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="21" t="s">
+      <c r="E55" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="F55" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="K45" s="32"/>
-    </row>
-    <row r="46" spans="1:11" s="13" customFormat="1">
-      <c r="B46" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="21"/>
-      <c r="K46" s="32"/>
-    </row>
-    <row r="47" spans="1:11" s="13" customFormat="1" ht="60">
-      <c r="D47" s="9" t="s">
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+    </row>
+    <row r="56" spans="1:12" ht="60">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="19"/>
-      <c r="F47" s="21" t="s">
+      <c r="D56" s="19"/>
+      <c r="E56" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="F56" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="K47" s="31"/>
-    </row>
-    <row r="48" spans="1:11" s="13" customFormat="1">
-      <c r="B48" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="21"/>
-      <c r="K48" s="31"/>
-    </row>
-    <row r="49" spans="1:11" s="13" customFormat="1" ht="30">
-      <c r="A49" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="D49" s="8" t="s">
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J57" s="33"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J58" s="33"/>
+    </row>
+    <row r="59" spans="1:12" ht="45">
+      <c r="A59" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H59" s="13"/>
+      <c r="J59" s="33"/>
+    </row>
+    <row r="60" spans="1:12" ht="45">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="21" t="s">
+      <c r="E60" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J60" s="33"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J61" s="33"/>
+    </row>
+    <row r="62" spans="1:12" ht="75">
+      <c r="A62" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="J62" s="33"/>
+    </row>
+    <row r="63" spans="1:12" ht="60">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="19"/>
+      <c r="E63" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G63" s="13"/>
+      <c r="J63" s="33"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="19"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="J64" s="33"/>
+    </row>
+    <row r="65" spans="1:12" ht="45">
+      <c r="A65" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="19"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="J65" s="33"/>
+    </row>
+    <row r="66" spans="1:12" ht="30">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="F66" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="K49" s="31"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="K50" s="33"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="K51" s="33"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="K52" s="33"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="K53" s="33"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="K54" s="33"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="K55" s="33"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="K56" s="33"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="K57" s="33"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="K58" s="33"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="K59" s="33"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="K60" s="33"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="K61" s="33"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="K62" s="33"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="K63" s="33"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="K64" s="33"/>
-    </row>
-    <row r="65" spans="11:11">
-      <c r="K65" s="33"/>
-    </row>
-    <row r="66" spans="11:11">
-      <c r="K66" s="33"/>
-    </row>
-    <row r="67" spans="11:11">
-      <c r="K67" s="33"/>
-    </row>
-    <row r="68" spans="11:11">
-      <c r="K68" s="33"/>
-    </row>
-    <row r="69" spans="11:11">
-      <c r="K69" s="33"/>
-    </row>
-    <row r="70" spans="11:11">
-      <c r="K70" s="33"/>
-    </row>
-    <row r="71" spans="11:11">
-      <c r="K71" s="33"/>
-    </row>
-    <row r="72" spans="11:11">
-      <c r="K72" s="33"/>
-    </row>
-    <row r="73" spans="11:11">
-      <c r="K73" s="33"/>
-    </row>
-    <row r="74" spans="11:11">
-      <c r="K74" s="33"/>
-    </row>
-    <row r="75" spans="11:11">
-      <c r="K75" s="33"/>
-    </row>
-    <row r="76" spans="11:11">
-      <c r="K76" s="33"/>
-    </row>
-    <row r="77" spans="11:11">
-      <c r="K77" s="33"/>
-    </row>
-    <row r="78" spans="11:11">
-      <c r="K78" s="33"/>
-    </row>
-    <row r="79" spans="11:11">
-      <c r="K79" s="33"/>
-    </row>
-    <row r="80" spans="11:11">
-      <c r="K80" s="33"/>
-    </row>
-    <row r="81" spans="11:11">
-      <c r="K81" s="33"/>
-    </row>
-    <row r="82" spans="11:11">
-      <c r="K82" s="33"/>
-    </row>
-    <row r="83" spans="11:11">
-      <c r="K83" s="33"/>
-    </row>
-    <row r="84" spans="11:11">
-      <c r="K84" s="33"/>
-    </row>
-    <row r="85" spans="11:11">
-      <c r="K85" s="33"/>
-    </row>
-    <row r="86" spans="11:11">
-      <c r="K86" s="33"/>
-    </row>
-    <row r="87" spans="11:11">
-      <c r="K87" s="33"/>
-    </row>
-    <row r="88" spans="11:11">
-      <c r="K88" s="33"/>
-    </row>
-    <row r="89" spans="11:11">
-      <c r="K89" s="33"/>
-    </row>
-    <row r="90" spans="11:11">
-      <c r="K90" s="33"/>
-    </row>
-    <row r="91" spans="11:11">
-      <c r="K91" s="33"/>
-    </row>
-    <row r="92" spans="11:11">
-      <c r="K92" s="33"/>
-    </row>
-    <row r="93" spans="11:11">
-      <c r="K93" s="33"/>
-    </row>
-    <row r="94" spans="11:11">
-      <c r="K94" s="33"/>
-    </row>
-    <row r="95" spans="11:11">
-      <c r="K95" s="33"/>
-    </row>
-    <row r="96" spans="11:11">
-      <c r="K96" s="33"/>
-    </row>
-    <row r="97" spans="11:11">
-      <c r="K97" s="33"/>
-    </row>
-    <row r="98" spans="11:11">
-      <c r="K98" s="33"/>
-    </row>
-    <row r="99" spans="11:11">
-      <c r="K99" s="33"/>
-    </row>
-    <row r="100" spans="11:11">
-      <c r="K100" s="33"/>
-    </row>
-    <row r="101" spans="11:11">
-      <c r="K101" s="33"/>
-    </row>
-    <row r="102" spans="11:11">
-      <c r="K102" s="33"/>
-    </row>
-    <row r="103" spans="11:11">
-      <c r="K103" s="33"/>
-    </row>
-    <row r="104" spans="11:11">
-      <c r="K104" s="33"/>
-    </row>
-    <row r="105" spans="11:11">
-      <c r="K105" s="33"/>
-    </row>
-    <row r="106" spans="11:11">
-      <c r="K106" s="33"/>
-    </row>
-    <row r="107" spans="11:11">
-      <c r="K107" s="33"/>
-    </row>
-    <row r="108" spans="11:11">
-      <c r="K108" s="33"/>
-    </row>
-    <row r="109" spans="11:11">
-      <c r="K109" s="33"/>
-    </row>
-    <row r="110" spans="11:11">
-      <c r="K110" s="33"/>
-    </row>
-    <row r="111" spans="11:11">
-      <c r="K111" s="33"/>
-    </row>
-    <row r="112" spans="11:11">
-      <c r="K112" s="33"/>
-    </row>
-    <row r="113" spans="11:11">
-      <c r="K113" s="33"/>
-    </row>
-    <row r="114" spans="11:11">
-      <c r="K114" s="33"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J67" s="33"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="J68" s="33"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="J69" s="33"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="J70" s="33"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="J71" s="33"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="J72" s="33"/>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="J73" s="33"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="J74" s="33"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="J75" s="33"/>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="J76" s="33"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="J77" s="33"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="J78" s="33"/>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="J79" s="33"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="J80" s="33"/>
+    </row>
+    <row r="81" spans="10:10">
+      <c r="J81" s="33"/>
+    </row>
+    <row r="82" spans="10:10">
+      <c r="J82" s="33"/>
+    </row>
+    <row r="83" spans="10:10">
+      <c r="J83" s="33"/>
+    </row>
+    <row r="84" spans="10:10">
+      <c r="J84" s="33"/>
+    </row>
+    <row r="85" spans="10:10">
+      <c r="J85" s="33"/>
+    </row>
+    <row r="86" spans="10:10">
+      <c r="J86" s="33"/>
+    </row>
+    <row r="87" spans="10:10">
+      <c r="J87" s="33"/>
+    </row>
+    <row r="88" spans="10:10">
+      <c r="J88" s="33"/>
+    </row>
+    <row r="89" spans="10:10">
+      <c r="J89" s="33"/>
+    </row>
+    <row r="90" spans="10:10">
+      <c r="J90" s="33"/>
+    </row>
+    <row r="91" spans="10:10">
+      <c r="J91" s="33"/>
+    </row>
+    <row r="92" spans="10:10">
+      <c r="J92" s="33"/>
+    </row>
+    <row r="93" spans="10:10">
+      <c r="J93" s="33"/>
+    </row>
+    <row r="94" spans="10:10">
+      <c r="J94" s="33"/>
+    </row>
+    <row r="95" spans="10:10">
+      <c r="J95" s="33"/>
+    </row>
+    <row r="96" spans="10:10">
+      <c r="J96" s="33"/>
+    </row>
+    <row r="97" spans="10:10">
+      <c r="J97" s="33"/>
+    </row>
+    <row r="98" spans="10:10">
+      <c r="J98" s="33"/>
+    </row>
+    <row r="99" spans="10:10">
+      <c r="J99" s="33"/>
+    </row>
+    <row r="100" spans="10:10">
+      <c r="J100" s="33"/>
+    </row>
+    <row r="101" spans="10:10">
+      <c r="J101" s="33"/>
+    </row>
+    <row r="102" spans="10:10">
+      <c r="J102" s="33"/>
+    </row>
+    <row r="103" spans="10:10">
+      <c r="J103" s="33"/>
+    </row>
+    <row r="104" spans="10:10">
+      <c r="J104" s="33"/>
+    </row>
+    <row r="105" spans="10:10">
+      <c r="J105" s="33"/>
+    </row>
+    <row r="106" spans="10:10">
+      <c r="J106" s="33"/>
+    </row>
+    <row r="107" spans="10:10">
+      <c r="J107" s="33"/>
+    </row>
+    <row r="108" spans="10:10">
+      <c r="J108" s="33"/>
+    </row>
+    <row r="109" spans="10:10">
+      <c r="J109" s="33"/>
+    </row>
+    <row r="110" spans="10:10">
+      <c r="J110" s="33"/>
+    </row>
+    <row r="111" spans="10:10">
+      <c r="J111" s="33"/>
+    </row>
+    <row r="112" spans="10:10">
+      <c r="J112" s="33"/>
+    </row>
+    <row r="113" spans="10:10">
+      <c r="J113" s="33"/>
+    </row>
+    <row r="114" spans="10:10">
+      <c r="J114" s="33"/>
+    </row>
+    <row r="115" spans="10:10">
+      <c r="J115" s="33"/>
+    </row>
+    <row r="116" spans="10:10">
+      <c r="J116" s="33"/>
+    </row>
+    <row r="117" spans="10:10">
+      <c r="J117" s="33"/>
+    </row>
+    <row r="118" spans="10:10">
+      <c r="J118" s="33"/>
+    </row>
+    <row r="119" spans="10:10">
+      <c r="J119" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3431,8 +3731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4459,26 +4759,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="25" t="s">
         <v>13</v>
       </c>
@@ -4486,7 +4789,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="25" t="s">
         <v>13</v>
       </c>
@@ -4494,7 +4797,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="25" t="s">
         <v>185</v>
       </c>
@@ -4502,7 +4805,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="26" t="s">
         <v>12</v>
       </c>
@@ -4510,7 +4813,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="27" t="s">
         <v>13</v>
       </c>
@@ -4518,7 +4821,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="27" t="s">
         <v>14</v>
       </c>
@@ -4526,7 +4829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="27" t="s">
         <v>14</v>
       </c>
@@ -4534,7 +4837,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="27" t="s">
         <v>185</v>
       </c>
@@ -4542,7 +4845,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="27" t="s">
         <v>218</v>
       </c>
@@ -4550,7 +4853,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="27" t="s">
         <v>185</v>
       </c>
@@ -4558,7 +4861,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" s="27" t="s">
         <v>218</v>
       </c>
@@ -4566,7 +4869,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" s="27" t="s">
         <v>12</v>
       </c>
@@ -4574,7 +4877,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" s="27" t="s">
         <v>185</v>
       </c>
@@ -4582,7 +4885,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" s="27" t="s">
         <v>12</v>
       </c>
@@ -4590,7 +4893,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" s="27" t="s">
         <v>185</v>
       </c>
@@ -4982,12 +5285,56 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:3">
       <c r="A65" s="29" t="s">
         <v>12</v>
       </c>
       <c r="B65" s="29" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="B69" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C69" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/femaleClients/forms/screenClient/screenClient.xlsx
+++ b/app/config/tables/femaleClients/forms/screenClient/screenClient.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="281">
   <si>
     <t>type</t>
   </si>
@@ -38,33 +38,15 @@
     <t>constraint</t>
   </si>
   <si>
-    <t>constraint_message</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
     <t>appearance</t>
   </si>
   <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>read_only</t>
-  </si>
-  <si>
     <t>calculation</t>
   </si>
   <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>audio</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -276,9 +258,6 @@
   </si>
   <si>
     <t>Not sure</t>
-  </si>
-  <si>
-    <t>media::image</t>
   </si>
   <si>
     <t>Continue to next page to submit responses.</t>
@@ -580,9 +559,6 @@
     <t>survey_complete</t>
   </si>
   <si>
-    <t>display.hint</t>
-  </si>
-  <si>
     <t>select_one</t>
   </si>
   <si>
@@ -607,9 +583,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>form_version</t>
   </si>
   <si>
@@ -890,6 +863,15 @@
   </si>
   <si>
     <t>selected(data('hiv_tested'),'a1')</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
   </si>
 </sst>
 </file>
@@ -1529,7 +1511,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1570,13 +1552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2504,13 +2480,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S118"/>
+  <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2519,979 +2495,951 @@
     <col min="2" max="2" width="21.44140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="41.21875" style="3" customWidth="1"/>
     <col min="4" max="4" width="21.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="19" customWidth="1"/>
     <col min="7" max="7" width="63" style="3" customWidth="1"/>
     <col min="8" max="8" width="22.77734375" style="3" customWidth="1"/>
-    <col min="9" max="10" width="10.77734375" style="3"/>
-    <col min="11" max="11" width="43.109375" style="23" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" style="3"/>
-    <col min="13" max="13" width="15" style="3" customWidth="1"/>
-    <col min="14" max="14" width="10.77734375" style="3"/>
-    <col min="15" max="15" width="28" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="10.77734375" style="3"/>
+    <col min="9" max="9" width="10.77734375" style="3"/>
+    <col min="10" max="10" width="36.5546875" style="21" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="3"/>
+    <col min="12" max="12" width="15" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="10.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="F1" s="34" t="s">
+      <c r="E1" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="32" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>152</v>
+        <v>279</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>183</v>
+        <v>280</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="28"/>
+    </row>
+    <row r="3" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="29"/>
+    </row>
+    <row r="4" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="J4" s="29"/>
+    </row>
+    <row r="5" spans="1:12" s="13" customFormat="1" ht="125.7" x14ac:dyDescent="0.3">
+      <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J5" s="29"/>
+    </row>
+    <row r="6" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="19"/>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" spans="1:12" s="13" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="19"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:12" s="13" customFormat="1" ht="78.55" x14ac:dyDescent="0.3">
+      <c r="D10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="19"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="1:12" s="13" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+      <c r="D12" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="19"/>
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" spans="1:12" s="13" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="D14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="19"/>
+      <c r="J15" s="29"/>
+    </row>
+    <row r="16" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J20" s="29"/>
+    </row>
+    <row r="21" spans="2:10" s="13" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="D21" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J22" s="29"/>
+    </row>
+    <row r="23" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="19"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="2:10" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+      <c r="D24" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" s="13" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="2:10" s="13" customFormat="1" ht="94.25" x14ac:dyDescent="0.3">
+      <c r="D26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="5" t="s">
+      <c r="E26" s="16"/>
+      <c r="F26" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="J28" s="30"/>
+    </row>
+    <row r="29" spans="2:10" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+      <c r="B29" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="19"/>
+      <c r="J29" s="30"/>
+    </row>
+    <row r="30" spans="2:10" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+      <c r="D30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="19"/>
+      <c r="J31" s="30"/>
+    </row>
+    <row r="32" spans="2:10" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+      <c r="D32" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" s="30"/>
+    </row>
+    <row r="34" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="19"/>
+      <c r="J34" s="30"/>
+    </row>
+    <row r="35" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J35" s="30"/>
+    </row>
+    <row r="36" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="19"/>
+      <c r="J36" s="30"/>
+    </row>
+    <row r="37" spans="1:10" s="13" customFormat="1" ht="94.25" x14ac:dyDescent="0.3">
+      <c r="B37" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="19"/>
+      <c r="J37" s="30"/>
+    </row>
+    <row r="38" spans="1:10" s="13" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+      <c r="D38" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="30"/>
-    </row>
-    <row r="3" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="5" spans="1:19" s="13" customFormat="1" ht="125.7" x14ac:dyDescent="0.3">
-      <c r="D5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="K5" s="31"/>
-    </row>
-    <row r="6" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" s="31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+      <c r="E38" s="17"/>
+      <c r="F38" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J38" s="29"/>
+    </row>
+    <row r="39" spans="1:10" s="13" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+      <c r="D39" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J39" s="29"/>
+    </row>
+    <row r="40" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="19"/>
+      <c r="J40" s="29"/>
+    </row>
+    <row r="41" spans="1:10" s="13" customFormat="1" ht="110" x14ac:dyDescent="0.3">
+      <c r="D41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="13" customFormat="1" ht="110" x14ac:dyDescent="0.3">
+      <c r="D42" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="19"/>
+      <c r="J43" s="29"/>
+    </row>
+    <row r="44" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="21"/>
-      <c r="K7" s="31"/>
-    </row>
-    <row r="8" spans="1:19" s="13" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
-      <c r="D8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="31"/>
-    </row>
-    <row r="9" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="21"/>
-      <c r="K9" s="31"/>
-    </row>
-    <row r="10" spans="1:19" s="13" customFormat="1" ht="78.55" x14ac:dyDescent="0.3">
-      <c r="D10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="21"/>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="1:19" s="13" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
-      <c r="D12" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="21"/>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="1:19" s="13" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="D14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="K14" s="31"/>
-      <c r="N14" s="14"/>
-    </row>
-    <row r="15" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="21"/>
-      <c r="K15" s="31"/>
-      <c r="N15" s="14"/>
-    </row>
-    <row r="16" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="K16" s="31"/>
-    </row>
-    <row r="17" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="K17" s="31"/>
-    </row>
-    <row r="18" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="K18" s="32"/>
-    </row>
-    <row r="19" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="32"/>
-    </row>
-    <row r="20" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="K20" s="31"/>
-    </row>
-    <row r="21" spans="2:11" s="13" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="D21" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21" s="31"/>
-    </row>
-    <row r="22" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K22" s="31"/>
-    </row>
-    <row r="23" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="21"/>
-      <c r="K23" s="31"/>
-    </row>
-    <row r="24" spans="2:11" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
-      <c r="D24" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="21" t="s">
+      <c r="D44" s="8"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="19"/>
+      <c r="J44" s="30"/>
+    </row>
+    <row r="45" spans="1:10" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="17"/>
+      <c r="F45" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" s="13" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="2:11" s="13" customFormat="1" ht="94.25" x14ac:dyDescent="0.3">
-      <c r="D26" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="J26" s="16"/>
-      <c r="K26" s="13" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="21"/>
-      <c r="J27" s="16"/>
-    </row>
-    <row r="28" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="K28" s="32"/>
-    </row>
-    <row r="29" spans="2:11" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
-      <c r="B29" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="21"/>
-      <c r="K29" s="32"/>
-    </row>
-    <row r="30" spans="2:11" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
-      <c r="D30" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="K30" s="32" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="21"/>
-      <c r="K31" s="32"/>
-    </row>
-    <row r="32" spans="2:11" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
-      <c r="D32" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H32" s="13" t="s">
+      <c r="G45" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J45" s="29"/>
+    </row>
+    <row r="46" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="19"/>
+      <c r="J46" s="29"/>
+    </row>
+    <row r="47" spans="1:10" s="13" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A47" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="J47" s="30"/>
+    </row>
+    <row r="48" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="19"/>
+      <c r="J48" s="30"/>
+    </row>
+    <row r="49" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D49" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="16"/>
+      <c r="F49" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G49" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="K32" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="K33" s="32"/>
-    </row>
-    <row r="34" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="21"/>
-      <c r="K34" s="32"/>
-    </row>
-    <row r="35" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="K35" s="32"/>
-    </row>
-    <row r="36" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="21"/>
-      <c r="K36" s="32"/>
-    </row>
-    <row r="37" spans="1:11" s="13" customFormat="1" ht="94.25" x14ac:dyDescent="0.3">
-      <c r="B37" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="21"/>
-      <c r="K37" s="32"/>
-    </row>
-    <row r="38" spans="1:11" s="13" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
-      <c r="D38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="21" t="s">
+      <c r="J49" s="30"/>
+    </row>
+    <row r="50" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="19"/>
+      <c r="J50" s="30"/>
+    </row>
+    <row r="51" spans="1:10" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+      <c r="D51" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="17"/>
+      <c r="F51" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J51" s="29"/>
+    </row>
+    <row r="52" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="19"/>
+      <c r="J52" s="29"/>
+    </row>
+    <row r="53" spans="1:10" s="13" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A53" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="16"/>
+      <c r="F53" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G38" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K38" s="31"/>
-    </row>
-    <row r="39" spans="1:11" s="13" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
-      <c r="D39" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K39" s="31"/>
-    </row>
-    <row r="40" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="21"/>
-      <c r="K40" s="31"/>
-    </row>
-    <row r="41" spans="1:11" s="13" customFormat="1" ht="110" x14ac:dyDescent="0.3">
-      <c r="D41" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="13" customFormat="1" ht="110" x14ac:dyDescent="0.3">
-      <c r="D42" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="F42" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="K42" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="21"/>
-      <c r="K43" s="31"/>
-    </row>
-    <row r="44" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="21"/>
-      <c r="K44" s="32"/>
-    </row>
-    <row r="45" spans="1:11" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K45" s="31"/>
-    </row>
-    <row r="46" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="21"/>
-      <c r="K46" s="31"/>
-    </row>
-    <row r="47" spans="1:11" s="13" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="K47" s="32"/>
-    </row>
-    <row r="48" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="21"/>
-      <c r="K48" s="32"/>
-    </row>
-    <row r="49" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="K49" s="32"/>
-    </row>
-    <row r="50" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="21"/>
-      <c r="K50" s="32"/>
-    </row>
-    <row r="51" spans="1:11" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
-      <c r="D51" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="19"/>
-      <c r="F51" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="K51" s="31"/>
-    </row>
-    <row r="52" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="21"/>
-      <c r="K52" s="31"/>
-    </row>
-    <row r="53" spans="1:11" s="13" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" s="18"/>
-      <c r="F53" s="21" t="s">
-        <v>182</v>
-      </c>
       <c r="G53" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="K53" s="31"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K54" s="33"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K55" s="33"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K56" s="33"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K57" s="33"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K58" s="33"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K59" s="33"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K60" s="33"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K61" s="33"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K62" s="33"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K63" s="33"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K64" s="33"/>
-    </row>
-    <row r="65" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K65" s="33"/>
-    </row>
-    <row r="66" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K66" s="33"/>
-    </row>
-    <row r="67" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K67" s="33"/>
-    </row>
-    <row r="68" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K68" s="33"/>
-    </row>
-    <row r="69" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K69" s="33"/>
-    </row>
-    <row r="70" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K70" s="33"/>
-    </row>
-    <row r="71" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K71" s="33"/>
-    </row>
-    <row r="72" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K72" s="33"/>
-    </row>
-    <row r="73" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K73" s="33"/>
-    </row>
-    <row r="74" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K74" s="33"/>
-    </row>
-    <row r="75" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K75" s="33"/>
-    </row>
-    <row r="76" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K76" s="33"/>
-    </row>
-    <row r="77" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K77" s="33"/>
-    </row>
-    <row r="78" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K78" s="33"/>
-    </row>
-    <row r="79" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K79" s="33"/>
-    </row>
-    <row r="80" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K80" s="33"/>
-    </row>
-    <row r="81" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K81" s="33"/>
-    </row>
-    <row r="82" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K82" s="33"/>
-    </row>
-    <row r="83" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K83" s="33"/>
-    </row>
-    <row r="84" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K84" s="33"/>
-    </row>
-    <row r="85" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K85" s="33"/>
-    </row>
-    <row r="86" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K86" s="33"/>
-    </row>
-    <row r="87" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K87" s="33"/>
-    </row>
-    <row r="88" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K88" s="33"/>
-    </row>
-    <row r="89" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K89" s="33"/>
-    </row>
-    <row r="90" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K90" s="33"/>
-    </row>
-    <row r="91" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K91" s="33"/>
-    </row>
-    <row r="92" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K92" s="33"/>
-    </row>
-    <row r="93" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K93" s="33"/>
-    </row>
-    <row r="94" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K94" s="33"/>
-    </row>
-    <row r="95" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K95" s="33"/>
-    </row>
-    <row r="96" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K96" s="33"/>
-    </row>
-    <row r="97" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K97" s="33"/>
-    </row>
-    <row r="98" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K98" s="33"/>
-    </row>
-    <row r="99" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K99" s="33"/>
-    </row>
-    <row r="100" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K100" s="33"/>
-    </row>
-    <row r="101" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K101" s="33"/>
-    </row>
-    <row r="102" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K102" s="33"/>
-    </row>
-    <row r="103" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K103" s="33"/>
-    </row>
-    <row r="104" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K104" s="33"/>
-    </row>
-    <row r="105" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K105" s="33"/>
-    </row>
-    <row r="106" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K106" s="33"/>
-    </row>
-    <row r="107" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K107" s="33"/>
-    </row>
-    <row r="108" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K108" s="33"/>
-    </row>
-    <row r="109" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K109" s="33"/>
-    </row>
-    <row r="110" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K110" s="33"/>
-    </row>
-    <row r="111" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K111" s="33"/>
-    </row>
-    <row r="112" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K112" s="33"/>
-    </row>
-    <row r="113" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K113" s="33"/>
-    </row>
-    <row r="114" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K114" s="33"/>
-    </row>
-    <row r="115" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K115" s="33"/>
-    </row>
-    <row r="116" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K116" s="33"/>
-    </row>
-    <row r="117" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K117" s="33"/>
-    </row>
-    <row r="118" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K118" s="33"/>
+        <v>108</v>
+      </c>
+      <c r="J53" s="29"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J54" s="31"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J55" s="31"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J56" s="31"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J57" s="31"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J58" s="31"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J59" s="31"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J60" s="31"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J61" s="31"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J62" s="31"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J63" s="31"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J64" s="31"/>
+    </row>
+    <row r="65" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J65" s="31"/>
+    </row>
+    <row r="66" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J66" s="31"/>
+    </row>
+    <row r="67" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J67" s="31"/>
+    </row>
+    <row r="68" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J68" s="31"/>
+    </row>
+    <row r="69" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J69" s="31"/>
+    </row>
+    <row r="70" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J70" s="31"/>
+    </row>
+    <row r="71" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J71" s="31"/>
+    </row>
+    <row r="72" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J72" s="31"/>
+    </row>
+    <row r="73" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J73" s="31"/>
+    </row>
+    <row r="74" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J74" s="31"/>
+    </row>
+    <row r="75" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J75" s="31"/>
+    </row>
+    <row r="76" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J76" s="31"/>
+    </row>
+    <row r="77" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J77" s="31"/>
+    </row>
+    <row r="78" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J78" s="31"/>
+    </row>
+    <row r="79" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J79" s="31"/>
+    </row>
+    <row r="80" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J80" s="31"/>
+    </row>
+    <row r="81" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J81" s="31"/>
+    </row>
+    <row r="82" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J82" s="31"/>
+    </row>
+    <row r="83" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J83" s="31"/>
+    </row>
+    <row r="84" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J84" s="31"/>
+    </row>
+    <row r="85" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J85" s="31"/>
+    </row>
+    <row r="86" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J86" s="31"/>
+    </row>
+    <row r="87" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J87" s="31"/>
+    </row>
+    <row r="88" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J88" s="31"/>
+    </row>
+    <row r="89" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J89" s="31"/>
+    </row>
+    <row r="90" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J90" s="31"/>
+    </row>
+    <row r="91" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J91" s="31"/>
+    </row>
+    <row r="92" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J92" s="31"/>
+    </row>
+    <row r="93" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J93" s="31"/>
+    </row>
+    <row r="94" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J94" s="31"/>
+    </row>
+    <row r="95" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J95" s="31"/>
+    </row>
+    <row r="96" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J96" s="31"/>
+    </row>
+    <row r="97" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J97" s="31"/>
+    </row>
+    <row r="98" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J98" s="31"/>
+    </row>
+    <row r="99" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J99" s="31"/>
+    </row>
+    <row r="100" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J100" s="31"/>
+    </row>
+    <row r="101" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J101" s="31"/>
+    </row>
+    <row r="102" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J102" s="31"/>
+    </row>
+    <row r="103" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J103" s="31"/>
+    </row>
+    <row r="104" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J104" s="31"/>
+    </row>
+    <row r="105" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J105" s="31"/>
+    </row>
+    <row r="106" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J106" s="31"/>
+    </row>
+    <row r="107" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J107" s="31"/>
+    </row>
+    <row r="108" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J108" s="31"/>
+    </row>
+    <row r="109" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J109" s="31"/>
+    </row>
+    <row r="110" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J110" s="31"/>
+    </row>
+    <row r="111" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J111" s="31"/>
+    </row>
+    <row r="112" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J112" s="31"/>
+    </row>
+    <row r="113" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J113" s="31"/>
+    </row>
+    <row r="114" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J114" s="31"/>
+    </row>
+    <row r="115" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J115" s="31"/>
+    </row>
+    <row r="116" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J116" s="31"/>
+    </row>
+    <row r="117" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J117" s="31"/>
+    </row>
+    <row r="118" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J118" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3522,937 +3470,937 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4471,37 +4419,39 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="10.77734375" style="2"/>
+    <col min="2" max="2" width="10.77734375" style="2"/>
+    <col min="3" max="3" width="15.5546875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="10.77734375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>192</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B3" s="2">
         <v>20140512</v>
@@ -4509,18 +4459,18 @@
     </row>
     <row r="4" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4548,523 +4498,523 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A24" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="25" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="25" t="s">
+      <c r="B34" s="25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A40" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A43" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A56" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B56" s="27" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B23" s="27" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A64" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64" s="27" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="A24" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B26" s="27" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="27" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="A40" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="A43" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="B47" s="28" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="A56" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="29" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="29" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B62" s="29" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B63" s="29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="A64" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B64" s="29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" s="29" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/femaleClients/forms/screenClient/screenClient.xlsx
+++ b/app/config/tables/femaleClients/forms/screenClient/screenClient.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="236" yWindow="236" windowWidth="25357" windowHeight="15814" tabRatio="500"/>
+    <workbookView xWindow="236" yWindow="236" windowWidth="25357" windowHeight="15814" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="280">
   <si>
     <t>type</t>
   </si>
@@ -464,9 +464,6 @@
   </si>
   <si>
     <t>values_list</t>
-  </si>
-  <si>
-    <t>display.text</t>
   </si>
   <si>
     <t>interviewer_init</t>
@@ -2482,7 +2479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2508,13 +2505,13 @@
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>0</v>
@@ -2526,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>280</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>2</v>
@@ -2550,7 +2547,7 @@
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>78</v>
@@ -2564,7 +2561,7 @@
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>48</v>
@@ -2590,7 +2587,7 @@
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>141</v>
@@ -2599,13 +2596,13 @@
     </row>
     <row r="6" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D6" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>90</v>
@@ -2616,10 +2613,10 @@
     </row>
     <row r="7" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
@@ -2632,7 +2629,7 @@
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>130</v>
@@ -2644,7 +2641,7 @@
     </row>
     <row r="9" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
@@ -2657,7 +2654,7 @@
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>14</v>
@@ -2666,15 +2663,15 @@
         <v>143</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>251</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>252</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
@@ -2683,13 +2680,13 @@
     </row>
     <row r="12" spans="1:12" s="13" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="D12" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>15</v>
@@ -2698,15 +2695,15 @@
         <v>105</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
@@ -2719,7 +2716,7 @@
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>112</v>
@@ -2728,7 +2725,7 @@
     </row>
     <row r="15" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
@@ -2737,13 +2734,13 @@
     </row>
     <row r="16" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D16" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>118</v>
@@ -2756,7 +2753,7 @@
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>119</v>
@@ -2765,13 +2762,13 @@
     </row>
     <row r="18" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D18" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>68</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>93</v>
@@ -2780,7 +2777,7 @@
     </row>
     <row r="19" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D19" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>23</v>
@@ -2799,7 +2796,7 @@
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>120</v>
@@ -2808,13 +2805,13 @@
     </row>
     <row r="21" spans="2:10" s="13" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="D21" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>122</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>34</v>
@@ -2827,7 +2824,7 @@
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>121</v>
@@ -2836,7 +2833,7 @@
     </row>
     <row r="23" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
@@ -2845,13 +2842,13 @@
     </row>
     <row r="24" spans="2:10" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
       <c r="D24" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>49</v>
@@ -2860,15 +2857,15 @@
         <v>109</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="2:10" s="13" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
@@ -2880,7 +2877,7 @@
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>67</v>
@@ -2889,12 +2886,12 @@
         <v>107</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
@@ -2906,19 +2903,19 @@
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J28" s="30"/>
     </row>
     <row r="29" spans="2:10" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
@@ -2931,18 +2928,18 @@
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>75</v>
       </c>
       <c r="J30" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
@@ -2951,13 +2948,13 @@
     </row>
     <row r="32" spans="2:10" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
       <c r="D32" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>41</v>
@@ -2966,18 +2963,18 @@
         <v>110</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>113</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>45</v>
@@ -2986,10 +2983,10 @@
     </row>
     <row r="34" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="16"/>
@@ -2998,13 +2995,13 @@
     </row>
     <row r="35" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D35" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>88</v>
@@ -3013,7 +3010,7 @@
     </row>
     <row r="36" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="16"/>
@@ -3022,10 +3019,10 @@
     </row>
     <row r="37" spans="1:10" s="13" customFormat="1" ht="94.25" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="16"/>
@@ -3038,7 +3035,7 @@
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>126</v>
@@ -3050,13 +3047,13 @@
     </row>
     <row r="39" spans="1:10" s="13" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="D39" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>115</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G39" s="13" t="s">
         <v>132</v>
@@ -3068,10 +3065,10 @@
     </row>
     <row r="40" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="17"/>
@@ -3084,7 +3081,7 @@
       </c>
       <c r="E41" s="16"/>
       <c r="F41" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>133</v>
@@ -3093,29 +3090,29 @@
         <v>134</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="13" customFormat="1" ht="110" x14ac:dyDescent="0.3">
       <c r="D42" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>136</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G42" s="13" t="s">
         <v>135</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="16"/>
@@ -3124,7 +3121,7 @@
     </row>
     <row r="44" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="16"/>
@@ -3133,14 +3130,14 @@
     </row>
     <row r="45" spans="1:10" s="13" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G45" s="13" t="s">
         <v>131</v>
@@ -3149,7 +3146,7 @@
     </row>
     <row r="46" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="17"/>
@@ -3158,16 +3155,16 @@
     </row>
     <row r="47" spans="1:10" s="13" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>96</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G47" s="13" t="s">
         <v>95</v>
@@ -3176,10 +3173,10 @@
     </row>
     <row r="48" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="16"/>
@@ -3192,7 +3189,7 @@
       </c>
       <c r="E49" s="16"/>
       <c r="F49" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G49" s="13" t="s">
         <v>117</v>
@@ -3201,7 +3198,7 @@
     </row>
     <row r="50" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="16"/>
@@ -3214,7 +3211,7 @@
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>142</v>
@@ -3223,7 +3220,7 @@
     </row>
     <row r="52" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="16"/>
@@ -3232,14 +3229,14 @@
     </row>
     <row r="53" spans="1:10" s="13" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="16"/>
       <c r="F53" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G53" s="13" t="s">
         <v>108</v>
@@ -3456,8 +3453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3470,13 +3467,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3484,7 +3481,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -3495,7 +3492,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -3506,7 +3503,7 @@
         <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -3517,7 +3514,7 @@
         <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -3528,7 +3525,7 @@
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>79</v>
@@ -3539,7 +3536,7 @@
         <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>79</v>
@@ -3550,7 +3547,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
@@ -3561,7 +3558,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -3572,7 +3569,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>19</v>
@@ -3583,7 +3580,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
@@ -3594,7 +3591,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
@@ -3605,7 +3602,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
@@ -3616,7 +3613,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>63</v>
@@ -3627,7 +3624,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>79</v>
@@ -3638,7 +3635,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
@@ -3649,7 +3646,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>26</v>
@@ -3660,7 +3657,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>27</v>
@@ -3671,7 +3668,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>28</v>
@@ -3682,7 +3679,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>29</v>
@@ -3693,7 +3690,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>30</v>
@@ -3704,7 +3701,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>31</v>
@@ -3715,7 +3712,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>32</v>
@@ -3726,7 +3723,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>24</v>
@@ -3737,7 +3734,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>63</v>
@@ -3748,7 +3745,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>79</v>
@@ -3759,7 +3756,7 @@
         <v>122</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>80</v>
@@ -3770,7 +3767,7 @@
         <v>122</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>81</v>
@@ -3781,7 +3778,7 @@
         <v>122</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>39</v>
@@ -3792,7 +3789,7 @@
         <v>122</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>36</v>
@@ -3803,7 +3800,7 @@
         <v>122</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>37</v>
@@ -3814,7 +3811,7 @@
         <v>122</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>82</v>
@@ -3825,7 +3822,7 @@
         <v>122</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>38</v>
@@ -3836,7 +3833,7 @@
         <v>122</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>40</v>
@@ -3847,7 +3844,7 @@
         <v>122</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>35</v>
@@ -3858,7 +3855,7 @@
         <v>122</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>63</v>
@@ -3869,7 +3866,7 @@
         <v>122</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>79</v>
@@ -3880,7 +3877,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>43</v>
@@ -3891,7 +3888,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>44</v>
@@ -3902,7 +3899,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>63</v>
@@ -3913,7 +3910,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>79</v>
@@ -3924,7 +3921,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>58</v>
@@ -3935,7 +3932,7 @@
         <v>46</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>59</v>
@@ -3946,7 +3943,7 @@
         <v>46</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>79</v>
@@ -3957,7 +3954,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>76</v>
@@ -3968,7 +3965,7 @@
         <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
@@ -3979,7 +3976,7 @@
         <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
@@ -3990,7 +3987,7 @@
         <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>79</v>
@@ -4001,7 +3998,7 @@
         <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>76</v>
@@ -4012,7 +4009,7 @@
         <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>83</v>
@@ -4023,7 +4020,7 @@
         <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>84</v>
@@ -4034,7 +4031,7 @@
         <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>85</v>
@@ -4045,7 +4042,7 @@
         <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>86</v>
@@ -4111,7 +4108,7 @@
         <v>68</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>69</v>
@@ -4122,7 +4119,7 @@
         <v>68</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>70</v>
@@ -4133,7 +4130,7 @@
         <v>68</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>71</v>
@@ -4144,7 +4141,7 @@
         <v>68</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>72</v>
@@ -4155,7 +4152,7 @@
         <v>68</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>73</v>
@@ -4166,7 +4163,7 @@
         <v>68</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>74</v>
@@ -4177,7 +4174,7 @@
         <v>68</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>79</v>
@@ -4188,7 +4185,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>66</v>
@@ -4199,7 +4196,7 @@
         <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>92</v>
@@ -4210,7 +4207,7 @@
         <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>97</v>
@@ -4221,7 +4218,7 @@
         <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>98</v>
@@ -4232,7 +4229,7 @@
         <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>99</v>
@@ -4243,7 +4240,7 @@
         <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>100</v>
@@ -4254,7 +4251,7 @@
         <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>101</v>
@@ -4265,7 +4262,7 @@
         <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>102</v>
@@ -4276,7 +4273,7 @@
         <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>103</v>
@@ -4287,7 +4284,7 @@
         <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>104</v>
@@ -4298,7 +4295,7 @@
         <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>63</v>
@@ -4309,7 +4306,7 @@
         <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>79</v>
@@ -4320,7 +4317,7 @@
         <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>111</v>
@@ -4331,7 +4328,7 @@
         <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>125</v>
@@ -4342,7 +4339,7 @@
         <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>124</v>
@@ -4353,7 +4350,7 @@
         <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>79</v>
@@ -4364,7 +4361,7 @@
         <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>127</v>
@@ -4375,7 +4372,7 @@
         <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>116</v>
@@ -4432,13 +4429,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
@@ -4451,26 +4448,26 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B3" s="2">
         <v>20140512</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4510,7 +4507,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4518,15 +4515,15 @@
         <v>7</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4534,7 +4531,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4542,7 +4539,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4558,39 +4555,39 @@
         <v>8</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>208</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -4598,15 +4595,15 @@
         <v>6</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -4614,31 +4611,31 @@
         <v>6</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -4646,23 +4643,23 @@
         <v>6</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -4670,23 +4667,23 @@
         <v>7</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -4694,31 +4691,31 @@
         <v>6</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -4726,95 +4723,95 @@
         <v>7</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -4822,23 +4819,23 @@
         <v>6</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A43" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -4846,7 +4843,7 @@
         <v>6</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -4854,39 +4851,39 @@
         <v>6</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -4894,15 +4891,15 @@
         <v>7</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -4910,20 +4907,20 @@
         <v>6</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B54" s="27" t="s">
         <v>23</v>
@@ -4934,15 +4931,15 @@
         <v>6</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -4950,15 +4947,15 @@
         <v>6</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -4966,7 +4963,7 @@
         <v>7</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -4974,7 +4971,7 @@
         <v>7</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -4982,31 +4979,31 @@
         <v>7</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A64" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -5014,7 +5011,7 @@
         <v>6</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
